--- a/OpsAndMats/Model28.xlsx
+++ b/OpsAndMats/Model28.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4229" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4229" uniqueCount="583">
   <si>
     <t>Item</t>
   </si>
@@ -1454,7 +1454,7 @@
     <t>Washer, Split Lock, Med, ¼, Pl. Stl.</t>
   </si>
   <si>
-    <t>Nut, ASF full, ¼-20, Pl. Stl.</t>
+    <t>Hex Nut, full, ¼-20, Pl. Stl.</t>
   </si>
   <si>
     <t>HHCS, 3/8-16, 2, Pl. Stl.</t>
@@ -1466,7 +1466,7 @@
     <t>Washer, Split Lock, Med, 3/8, Pl. Stl.</t>
   </si>
   <si>
-    <t>Nut, ASF full, 3/8-16, Pl. Stl.</t>
+    <t>Hex Nut, full, 3/8-16, Pl. Stl.</t>
   </si>
   <si>
     <t>Washer, Lock, Int. Tooth, #6, Pl. Stl.</t>
@@ -1583,7 +1583,7 @@
     <t>EA</t>
   </si>
   <si>
-    <t>g</t>
+    <t>PT</t>
   </si>
   <si>
     <t>IN</t>
@@ -1593,9 +1593,6 @@
   </si>
   <si>
     <t>SF</t>
-  </si>
-  <si>
-    <t>PT</t>
   </si>
   <si>
     <t>FT</t>
@@ -4703,7 +4700,7 @@
         <v>8</v>
       </c>
       <c r="S31">
-        <v>40</v>
+        <v>0.0625</v>
       </c>
       <c r="T31" t="s">
         <v>520</v>
@@ -4869,7 +4866,7 @@
         <v>8</v>
       </c>
       <c r="S33">
-        <v>40</v>
+        <v>0.0625</v>
       </c>
       <c r="T33" t="s">
         <v>520</v>
@@ -18155,7 +18152,7 @@
         <v>520</v>
       </c>
       <c r="U193" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="V193">
         <v>0</v>
@@ -18321,7 +18318,7 @@
         <v>520</v>
       </c>
       <c r="U195" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="V195">
         <v>0</v>
@@ -18487,7 +18484,7 @@
         <v>520</v>
       </c>
       <c r="U197" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="V197">
         <v>0</v>
@@ -19068,7 +19065,7 @@
         <v>520</v>
       </c>
       <c r="U204" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="V204">
         <v>0</v>
@@ -19234,7 +19231,7 @@
         <v>520</v>
       </c>
       <c r="U206" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="V206">
         <v>0</v>
@@ -25791,7 +25788,7 @@
         <v>520</v>
       </c>
       <c r="U285" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="V285">
         <v>0</v>
@@ -26123,7 +26120,7 @@
         <v>520</v>
       </c>
       <c r="U289" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="V289">
         <v>0</v>
@@ -26289,7 +26286,7 @@
         <v>520</v>
       </c>
       <c r="U291" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="V291">
         <v>0</v>
@@ -28281,7 +28278,7 @@
         <v>520</v>
       </c>
       <c r="U315" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="V315">
         <v>0</v>
@@ -29526,7 +29523,7 @@
         <v>520</v>
       </c>
       <c r="U330" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="V330">
         <v>0</v>
@@ -29607,61 +29604,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>547</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
@@ -29670,64 +29667,64 @@
         <v>24</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:49">
@@ -29750,19 +29747,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L2">
         <v>0.5</v>
       </c>
       <c r="M2" t="s">
+        <v>575</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
         <v>576</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>577</v>
       </c>
       <c r="P2">
         <v>0.5</v>
@@ -29795,28 +29792,28 @@
         <v>1</v>
       </c>
       <c r="AE2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG2" t="s">
         <v>578</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="s">
         <v>579</v>
       </c>
-      <c r="AH2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>580</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="s">
         <v>581</v>
       </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>582</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>583</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -29860,19 +29857,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L3">
         <v>0.5</v>
       </c>
       <c r="M3" t="s">
+        <v>575</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
         <v>576</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>577</v>
       </c>
       <c r="P3">
         <v>0.5</v>
@@ -29905,28 +29902,28 @@
         <v>1</v>
       </c>
       <c r="AE3" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG3" t="s">
         <v>578</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="s">
         <v>579</v>
       </c>
-      <c r="AH3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AK3" t="s">
         <v>580</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="s">
         <v>581</v>
       </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>582</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>583</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -29970,19 +29967,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L4">
         <v>0.5</v>
       </c>
       <c r="M4" t="s">
+        <v>575</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
         <v>576</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>577</v>
       </c>
       <c r="P4">
         <v>0.5</v>
@@ -30015,28 +30012,28 @@
         <v>1</v>
       </c>
       <c r="AE4" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG4" t="s">
         <v>578</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="s">
         <v>579</v>
       </c>
-      <c r="AH4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AK4" t="s">
         <v>580</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="s">
         <v>581</v>
       </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>582</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>583</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -30080,19 +30077,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L5">
         <v>0.5</v>
       </c>
       <c r="M5" t="s">
+        <v>575</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
         <v>576</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>577</v>
       </c>
       <c r="P5">
         <v>0.5</v>
@@ -30125,28 +30122,28 @@
         <v>1</v>
       </c>
       <c r="AE5" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG5" t="s">
         <v>578</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="s">
         <v>579</v>
       </c>
-      <c r="AH5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="AK5" t="s">
         <v>580</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="s">
         <v>581</v>
       </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>582</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>583</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -30190,19 +30187,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L6">
         <v>0.5</v>
       </c>
       <c r="M6" t="s">
+        <v>575</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
         <v>576</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>577</v>
       </c>
       <c r="P6">
         <v>0.5</v>
@@ -30235,28 +30232,28 @@
         <v>1</v>
       </c>
       <c r="AE6" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG6" t="s">
         <v>578</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="s">
         <v>579</v>
       </c>
-      <c r="AH6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="s">
+      <c r="AK6" t="s">
         <v>580</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="s">
         <v>581</v>
       </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>582</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>583</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -30300,19 +30297,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L7">
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
+        <v>575</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
         <v>576</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>577</v>
       </c>
       <c r="P7">
         <v>0.5</v>
@@ -30345,28 +30342,28 @@
         <v>1</v>
       </c>
       <c r="AE7" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG7" t="s">
         <v>578</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="s">
         <v>579</v>
       </c>
-      <c r="AH7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="s">
+      <c r="AK7" t="s">
         <v>580</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="s">
         <v>581</v>
       </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
         <v>582</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>583</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -30410,19 +30407,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L8">
         <v>0.5</v>
       </c>
       <c r="M8" t="s">
+        <v>575</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
         <v>576</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
-        <v>577</v>
       </c>
       <c r="P8">
         <v>0.5</v>
@@ -30455,28 +30452,28 @@
         <v>1</v>
       </c>
       <c r="AE8" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG8" t="s">
         <v>578</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="s">
         <v>579</v>
       </c>
-      <c r="AH8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="s">
+      <c r="AK8" t="s">
         <v>580</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="s">
         <v>581</v>
       </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>582</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>583</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -30511,28 +30508,28 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L9">
         <v>0.5</v>
       </c>
       <c r="M9" t="s">
+        <v>575</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
         <v>576</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>577</v>
       </c>
       <c r="P9">
         <v>0.5</v>
@@ -30565,28 +30562,28 @@
         <v>1</v>
       </c>
       <c r="AE9" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG9" t="s">
         <v>578</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="s">
         <v>579</v>
       </c>
-      <c r="AH9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="s">
+      <c r="AK9" t="s">
         <v>580</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="s">
         <v>581</v>
       </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="s">
+      <c r="AN9" t="s">
         <v>582</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>583</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -30630,19 +30627,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L10">
         <v>0.5</v>
       </c>
       <c r="M10" t="s">
+        <v>575</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
         <v>576</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>577</v>
       </c>
       <c r="P10">
         <v>0.5</v>
@@ -30675,28 +30672,28 @@
         <v>1</v>
       </c>
       <c r="AE10" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG10" t="s">
         <v>578</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="s">
         <v>579</v>
       </c>
-      <c r="AH10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="s">
+      <c r="AK10" t="s">
         <v>580</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="s">
         <v>581</v>
       </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="s">
+      <c r="AN10" t="s">
         <v>582</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>583</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -30740,19 +30737,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L11">
         <v>0.5</v>
       </c>
       <c r="M11" t="s">
+        <v>575</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
         <v>576</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>577</v>
       </c>
       <c r="P11">
         <v>0.5</v>
@@ -30785,28 +30782,28 @@
         <v>1</v>
       </c>
       <c r="AE11" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG11" t="s">
         <v>578</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="s">
         <v>579</v>
       </c>
-      <c r="AH11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="s">
+      <c r="AK11" t="s">
         <v>580</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="s">
         <v>581</v>
       </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="s">
+      <c r="AN11" t="s">
         <v>582</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>583</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -30841,28 +30838,28 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L12">
         <v>0.5</v>
       </c>
       <c r="M12" t="s">
+        <v>575</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
         <v>576</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>577</v>
       </c>
       <c r="P12">
         <v>0.5</v>
@@ -30895,28 +30892,28 @@
         <v>1</v>
       </c>
       <c r="AE12" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG12" t="s">
         <v>578</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="s">
         <v>579</v>
       </c>
-      <c r="AH12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="s">
+      <c r="AK12" t="s">
         <v>580</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="s">
         <v>581</v>
       </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="s">
+      <c r="AN12" t="s">
         <v>582</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>583</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -30960,19 +30957,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L13">
         <v>0.5</v>
       </c>
       <c r="M13" t="s">
+        <v>575</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
         <v>576</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
-        <v>577</v>
       </c>
       <c r="P13">
         <v>0.5</v>
@@ -31005,28 +31002,28 @@
         <v>1</v>
       </c>
       <c r="AE13" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG13" t="s">
         <v>578</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="s">
         <v>579</v>
       </c>
-      <c r="AH13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="s">
+      <c r="AK13" t="s">
         <v>580</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="s">
         <v>581</v>
       </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="s">
+      <c r="AN13" t="s">
         <v>582</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>583</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -31070,19 +31067,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L14">
         <v>0.5</v>
       </c>
       <c r="M14" t="s">
+        <v>575</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
         <v>576</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14" t="s">
-        <v>577</v>
       </c>
       <c r="P14">
         <v>0.5</v>
@@ -31115,28 +31112,28 @@
         <v>1</v>
       </c>
       <c r="AE14" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG14" t="s">
         <v>578</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="s">
         <v>579</v>
       </c>
-      <c r="AH14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="s">
+      <c r="AK14" t="s">
         <v>580</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="s">
         <v>581</v>
       </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="s">
+      <c r="AN14" t="s">
         <v>582</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>583</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -31180,19 +31177,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L15">
         <v>0.5</v>
       </c>
       <c r="M15" t="s">
+        <v>575</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
         <v>576</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" t="s">
-        <v>577</v>
       </c>
       <c r="P15">
         <v>0.5</v>
@@ -31225,28 +31222,28 @@
         <v>1</v>
       </c>
       <c r="AE15" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG15" t="s">
         <v>578</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="s">
         <v>579</v>
       </c>
-      <c r="AH15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="s">
+      <c r="AK15" t="s">
         <v>580</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="s">
         <v>581</v>
       </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="s">
+      <c r="AN15" t="s">
         <v>582</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>583</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -31290,19 +31287,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L16">
         <v>0.5</v>
       </c>
       <c r="M16" t="s">
+        <v>575</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
         <v>576</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16" t="s">
-        <v>577</v>
       </c>
       <c r="P16">
         <v>0.5</v>
@@ -31335,28 +31332,28 @@
         <v>1</v>
       </c>
       <c r="AE16" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG16" t="s">
         <v>578</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="s">
         <v>579</v>
       </c>
-      <c r="AH16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="s">
+      <c r="AK16" t="s">
         <v>580</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="s">
         <v>581</v>
       </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="s">
+      <c r="AN16" t="s">
         <v>582</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>583</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -31400,19 +31397,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L17">
         <v>0.5</v>
       </c>
       <c r="M17" t="s">
+        <v>575</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
         <v>576</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17" t="s">
-        <v>577</v>
       </c>
       <c r="P17">
         <v>0.5</v>
@@ -31445,28 +31442,28 @@
         <v>1</v>
       </c>
       <c r="AE17" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG17" t="s">
         <v>578</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="s">
         <v>579</v>
       </c>
-      <c r="AH17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="s">
+      <c r="AK17" t="s">
         <v>580</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="s">
         <v>581</v>
       </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="s">
+      <c r="AN17" t="s">
         <v>582</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>583</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -31510,19 +31507,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L18">
         <v>0.5</v>
       </c>
       <c r="M18" t="s">
+        <v>575</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
         <v>576</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18" t="s">
-        <v>577</v>
       </c>
       <c r="P18">
         <v>0.5</v>
@@ -31555,28 +31552,28 @@
         <v>1</v>
       </c>
       <c r="AE18" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG18" t="s">
         <v>578</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="s">
         <v>579</v>
       </c>
-      <c r="AH18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="s">
+      <c r="AK18" t="s">
         <v>580</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="s">
         <v>581</v>
       </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="s">
+      <c r="AN18" t="s">
         <v>582</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>583</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -31620,19 +31617,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L19">
         <v>0.5</v>
       </c>
       <c r="M19" t="s">
+        <v>575</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
         <v>576</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19" t="s">
-        <v>577</v>
       </c>
       <c r="P19">
         <v>0.5</v>
@@ -31665,28 +31662,28 @@
         <v>1</v>
       </c>
       <c r="AE19" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG19" t="s">
         <v>578</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="s">
         <v>579</v>
       </c>
-      <c r="AH19" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="s">
+      <c r="AK19" t="s">
         <v>580</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="s">
         <v>581</v>
       </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="s">
+      <c r="AN19" t="s">
         <v>582</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>583</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -31730,19 +31727,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L20">
         <v>0.5</v>
       </c>
       <c r="M20" t="s">
+        <v>575</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
         <v>576</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20" t="s">
-        <v>577</v>
       </c>
       <c r="P20">
         <v>0.5</v>
@@ -31775,28 +31772,28 @@
         <v>1</v>
       </c>
       <c r="AE20" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG20" t="s">
         <v>578</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AH20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="s">
         <v>579</v>
       </c>
-      <c r="AH20" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="s">
+      <c r="AK20" t="s">
         <v>580</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="s">
         <v>581</v>
       </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="s">
+      <c r="AN20" t="s">
         <v>582</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>583</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -31840,19 +31837,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L21">
         <v>0.5</v>
       </c>
       <c r="M21" t="s">
+        <v>575</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
         <v>576</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21" t="s">
-        <v>577</v>
       </c>
       <c r="P21">
         <v>0.5</v>
@@ -31885,28 +31882,28 @@
         <v>1</v>
       </c>
       <c r="AE21" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG21" t="s">
         <v>578</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AH21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="s">
         <v>579</v>
       </c>
-      <c r="AH21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="s">
+      <c r="AK21" t="s">
         <v>580</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="s">
         <v>581</v>
       </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="s">
+      <c r="AN21" t="s">
         <v>582</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>583</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -31950,19 +31947,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L22">
         <v>0.5</v>
       </c>
       <c r="M22" t="s">
+        <v>575</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
         <v>576</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22" t="s">
-        <v>577</v>
       </c>
       <c r="P22">
         <v>0.5</v>
@@ -31995,28 +31992,28 @@
         <v>1</v>
       </c>
       <c r="AE22" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG22" t="s">
         <v>578</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AH22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="s">
         <v>579</v>
       </c>
-      <c r="AH22" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="s">
+      <c r="AK22" t="s">
         <v>580</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="s">
         <v>581</v>
       </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="s">
+      <c r="AN22" t="s">
         <v>582</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>583</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -32060,19 +32057,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L23">
         <v>0.5</v>
       </c>
       <c r="M23" t="s">
+        <v>575</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
         <v>576</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23" t="s">
-        <v>577</v>
       </c>
       <c r="P23">
         <v>0.5</v>
@@ -32105,28 +32102,28 @@
         <v>1</v>
       </c>
       <c r="AE23" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG23" t="s">
         <v>578</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AH23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="s">
         <v>579</v>
       </c>
-      <c r="AH23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="s">
+      <c r="AK23" t="s">
         <v>580</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="s">
         <v>581</v>
       </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="s">
+      <c r="AN23" t="s">
         <v>582</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>583</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -32170,19 +32167,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L24">
         <v>0.5</v>
       </c>
       <c r="M24" t="s">
+        <v>575</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
         <v>576</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24" t="s">
-        <v>577</v>
       </c>
       <c r="P24">
         <v>0.5</v>
@@ -32215,28 +32212,28 @@
         <v>1</v>
       </c>
       <c r="AE24" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG24" t="s">
         <v>578</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="s">
         <v>579</v>
       </c>
-      <c r="AH24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="s">
+      <c r="AK24" t="s">
         <v>580</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="s">
         <v>581</v>
       </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="s">
+      <c r="AN24" t="s">
         <v>582</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>583</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -32271,28 +32268,28 @@
         <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H25" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L25">
         <v>0.5</v>
       </c>
       <c r="M25" t="s">
+        <v>575</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
         <v>576</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25" t="s">
-        <v>577</v>
       </c>
       <c r="P25">
         <v>0.5</v>
@@ -32325,28 +32322,28 @@
         <v>1</v>
       </c>
       <c r="AE25" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG25" t="s">
         <v>578</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="s">
         <v>579</v>
       </c>
-      <c r="AH25" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="s">
+      <c r="AK25" t="s">
         <v>580</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="s">
         <v>581</v>
       </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="s">
+      <c r="AN25" t="s">
         <v>582</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>583</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -32381,28 +32378,28 @@
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L26">
         <v>0.5</v>
       </c>
       <c r="M26" t="s">
+        <v>575</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
         <v>576</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26" t="s">
-        <v>577</v>
       </c>
       <c r="P26">
         <v>0.5</v>
@@ -32435,28 +32432,28 @@
         <v>1</v>
       </c>
       <c r="AE26" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG26" t="s">
         <v>578</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AH26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="s">
         <v>579</v>
       </c>
-      <c r="AH26" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="s">
+      <c r="AK26" t="s">
         <v>580</v>
       </c>
-      <c r="AK26" t="s">
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="s">
         <v>581</v>
       </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26" t="s">
+      <c r="AN26" t="s">
         <v>582</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>583</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -32491,28 +32488,28 @@
         <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H27" t="s">
+        <v>573</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
         <v>574</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="K27" t="s">
-        <v>575</v>
       </c>
       <c r="L27">
         <v>0.5</v>
       </c>
       <c r="M27" t="s">
+        <v>575</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
         <v>576</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27" t="s">
-        <v>577</v>
       </c>
       <c r="P27">
         <v>0.5</v>
@@ -32545,28 +32542,28 @@
         <v>1</v>
       </c>
       <c r="AE27" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG27" t="s">
         <v>578</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AH27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="s">
         <v>579</v>
       </c>
-      <c r="AH27" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="s">
+      <c r="AK27" t="s">
         <v>580</v>
       </c>
-      <c r="AK27" t="s">
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="s">
         <v>581</v>
       </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27" t="s">
+      <c r="AN27" t="s">
         <v>582</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>583</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -32601,28 +32598,28 @@
         <v>50</v>
       </c>
       <c r="G28" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H28" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L28">
         <v>0.5</v>
       </c>
       <c r="M28" t="s">
+        <v>575</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
         <v>576</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28" t="s">
-        <v>577</v>
       </c>
       <c r="P28">
         <v>0.5</v>
@@ -32655,28 +32652,28 @@
         <v>1</v>
       </c>
       <c r="AE28" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG28" t="s">
         <v>578</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AH28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="s">
         <v>579</v>
       </c>
-      <c r="AH28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="s">
+      <c r="AK28" t="s">
         <v>580</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="s">
         <v>581</v>
       </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="s">
+      <c r="AN28" t="s">
         <v>582</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>583</v>
       </c>
       <c r="AO28">
         <v>0</v>
@@ -32720,19 +32717,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L29">
         <v>0.5</v>
       </c>
       <c r="M29" t="s">
+        <v>575</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
         <v>576</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29" t="s">
-        <v>577</v>
       </c>
       <c r="P29">
         <v>0.5</v>
@@ -32765,28 +32762,28 @@
         <v>1</v>
       </c>
       <c r="AE29" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG29" t="s">
         <v>578</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AH29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="s">
         <v>579</v>
       </c>
-      <c r="AH29" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="s">
+      <c r="AK29" t="s">
         <v>580</v>
       </c>
-      <c r="AK29" t="s">
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="s">
         <v>581</v>
       </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29" t="s">
+      <c r="AN29" t="s">
         <v>582</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>583</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -32830,19 +32827,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L30">
         <v>0.5</v>
       </c>
       <c r="M30" t="s">
+        <v>575</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
         <v>576</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30" t="s">
-        <v>577</v>
       </c>
       <c r="P30">
         <v>0.5</v>
@@ -32875,28 +32872,28 @@
         <v>1</v>
       </c>
       <c r="AE30" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG30" t="s">
         <v>578</v>
       </c>
-      <c r="AG30" t="s">
+      <c r="AH30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="s">
         <v>579</v>
       </c>
-      <c r="AH30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="s">
+      <c r="AK30" t="s">
         <v>580</v>
       </c>
-      <c r="AK30" t="s">
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="s">
         <v>581</v>
       </c>
-      <c r="AL30">
-        <v>0</v>
-      </c>
-      <c r="AM30" t="s">
+      <c r="AN30" t="s">
         <v>582</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>583</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -32931,28 +32928,28 @@
         <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H31" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L31">
         <v>0.5</v>
       </c>
       <c r="M31" t="s">
+        <v>575</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
         <v>576</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31" t="s">
-        <v>577</v>
       </c>
       <c r="P31">
         <v>0.5</v>
@@ -32985,28 +32982,28 @@
         <v>1</v>
       </c>
       <c r="AE31" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG31" t="s">
         <v>578</v>
       </c>
-      <c r="AG31" t="s">
+      <c r="AH31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="s">
         <v>579</v>
       </c>
-      <c r="AH31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="s">
+      <c r="AK31" t="s">
         <v>580</v>
       </c>
-      <c r="AK31" t="s">
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="s">
         <v>581</v>
       </c>
-      <c r="AL31">
-        <v>0</v>
-      </c>
-      <c r="AM31" t="s">
+      <c r="AN31" t="s">
         <v>582</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>583</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -33041,28 +33038,28 @@
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H32" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L32">
         <v>0.5</v>
       </c>
       <c r="M32" t="s">
+        <v>575</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
         <v>576</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32" t="s">
-        <v>577</v>
       </c>
       <c r="P32">
         <v>0.5</v>
@@ -33095,28 +33092,28 @@
         <v>1</v>
       </c>
       <c r="AE32" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG32" t="s">
         <v>578</v>
       </c>
-      <c r="AG32" t="s">
+      <c r="AH32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="s">
         <v>579</v>
       </c>
-      <c r="AH32" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="s">
+      <c r="AK32" t="s">
         <v>580</v>
       </c>
-      <c r="AK32" t="s">
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="s">
         <v>581</v>
       </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
-      <c r="AM32" t="s">
+      <c r="AN32" t="s">
         <v>582</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>583</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -33151,28 +33148,28 @@
         <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H33" t="s">
+        <v>573</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
         <v>574</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="K33" t="s">
-        <v>575</v>
       </c>
       <c r="L33">
         <v>0.5</v>
       </c>
       <c r="M33" t="s">
+        <v>575</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
         <v>576</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33" t="s">
-        <v>577</v>
       </c>
       <c r="P33">
         <v>0.5</v>
@@ -33205,28 +33202,28 @@
         <v>1</v>
       </c>
       <c r="AE33" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG33" t="s">
         <v>578</v>
       </c>
-      <c r="AG33" t="s">
+      <c r="AH33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="s">
         <v>579</v>
       </c>
-      <c r="AH33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="s">
+      <c r="AK33" t="s">
         <v>580</v>
       </c>
-      <c r="AK33" t="s">
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="s">
         <v>581</v>
       </c>
-      <c r="AL33">
-        <v>0</v>
-      </c>
-      <c r="AM33" t="s">
+      <c r="AN33" t="s">
         <v>582</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>583</v>
       </c>
       <c r="AO33">
         <v>0</v>
@@ -33261,28 +33258,28 @@
         <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H34" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L34">
         <v>0.5</v>
       </c>
       <c r="M34" t="s">
+        <v>575</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
         <v>576</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34" t="s">
-        <v>577</v>
       </c>
       <c r="P34">
         <v>0.5</v>
@@ -33315,28 +33312,28 @@
         <v>1</v>
       </c>
       <c r="AE34" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG34" t="s">
         <v>578</v>
       </c>
-      <c r="AG34" t="s">
+      <c r="AH34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="s">
         <v>579</v>
       </c>
-      <c r="AH34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="s">
+      <c r="AK34" t="s">
         <v>580</v>
       </c>
-      <c r="AK34" t="s">
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="s">
         <v>581</v>
       </c>
-      <c r="AL34">
-        <v>0</v>
-      </c>
-      <c r="AM34" t="s">
+      <c r="AN34" t="s">
         <v>582</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>583</v>
       </c>
       <c r="AO34">
         <v>0</v>
@@ -33380,19 +33377,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L35">
         <v>0.5</v>
       </c>
       <c r="M35" t="s">
+        <v>575</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
         <v>576</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35" t="s">
-        <v>577</v>
       </c>
       <c r="P35">
         <v>0.5</v>
@@ -33425,28 +33422,28 @@
         <v>1</v>
       </c>
       <c r="AE35" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG35" t="s">
         <v>578</v>
       </c>
-      <c r="AG35" t="s">
+      <c r="AH35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="s">
         <v>579</v>
       </c>
-      <c r="AH35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="s">
+      <c r="AK35" t="s">
         <v>580</v>
       </c>
-      <c r="AK35" t="s">
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="s">
         <v>581</v>
       </c>
-      <c r="AL35">
-        <v>0</v>
-      </c>
-      <c r="AM35" t="s">
+      <c r="AN35" t="s">
         <v>582</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>583</v>
       </c>
       <c r="AO35">
         <v>0</v>
@@ -33490,19 +33487,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L36">
         <v>0.5</v>
       </c>
       <c r="M36" t="s">
+        <v>575</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
         <v>576</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36" t="s">
-        <v>577</v>
       </c>
       <c r="P36">
         <v>0.5</v>
@@ -33535,28 +33532,28 @@
         <v>1</v>
       </c>
       <c r="AE36" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG36" t="s">
         <v>578</v>
       </c>
-      <c r="AG36" t="s">
+      <c r="AH36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="s">
         <v>579</v>
       </c>
-      <c r="AH36" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI36" t="s">
+      <c r="AK36" t="s">
         <v>580</v>
       </c>
-      <c r="AK36" t="s">
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="s">
         <v>581</v>
       </c>
-      <c r="AL36">
-        <v>0</v>
-      </c>
-      <c r="AM36" t="s">
+      <c r="AN36" t="s">
         <v>582</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>583</v>
       </c>
       <c r="AO36">
         <v>0</v>
@@ -33591,28 +33588,28 @@
         <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H37" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L37">
         <v>0.5</v>
       </c>
       <c r="M37" t="s">
+        <v>575</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
         <v>576</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37" t="s">
-        <v>577</v>
       </c>
       <c r="P37">
         <v>0.5</v>
@@ -33645,28 +33642,28 @@
         <v>1</v>
       </c>
       <c r="AE37" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG37" t="s">
         <v>578</v>
       </c>
-      <c r="AG37" t="s">
+      <c r="AH37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="s">
         <v>579</v>
       </c>
-      <c r="AH37" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI37" t="s">
+      <c r="AK37" t="s">
         <v>580</v>
       </c>
-      <c r="AK37" t="s">
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="s">
         <v>581</v>
       </c>
-      <c r="AL37">
-        <v>0</v>
-      </c>
-      <c r="AM37" t="s">
+      <c r="AN37" t="s">
         <v>582</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>583</v>
       </c>
       <c r="AO37">
         <v>0</v>
@@ -33701,28 +33698,28 @@
         <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H38" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L38">
         <v>0.5</v>
       </c>
       <c r="M38" t="s">
+        <v>575</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
         <v>576</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38" t="s">
-        <v>577</v>
       </c>
       <c r="P38">
         <v>0.5</v>
@@ -33755,28 +33752,28 @@
         <v>1</v>
       </c>
       <c r="AE38" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG38" t="s">
         <v>578</v>
       </c>
-      <c r="AG38" t="s">
+      <c r="AH38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="s">
         <v>579</v>
       </c>
-      <c r="AH38" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI38" t="s">
+      <c r="AK38" t="s">
         <v>580</v>
       </c>
-      <c r="AK38" t="s">
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="s">
         <v>581</v>
       </c>
-      <c r="AL38">
-        <v>0</v>
-      </c>
-      <c r="AM38" t="s">
+      <c r="AN38" t="s">
         <v>582</v>
-      </c>
-      <c r="AN38" t="s">
-        <v>583</v>
       </c>
       <c r="AO38">
         <v>0</v>
@@ -33811,28 +33808,28 @@
         <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H39" t="s">
+        <v>573</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
         <v>574</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="K39" t="s">
-        <v>575</v>
       </c>
       <c r="L39">
         <v>0.5</v>
       </c>
       <c r="M39" t="s">
+        <v>575</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
         <v>576</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39" t="s">
-        <v>577</v>
       </c>
       <c r="P39">
         <v>0.5</v>
@@ -33865,28 +33862,28 @@
         <v>1</v>
       </c>
       <c r="AE39" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG39" t="s">
         <v>578</v>
       </c>
-      <c r="AG39" t="s">
+      <c r="AH39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="s">
         <v>579</v>
       </c>
-      <c r="AH39" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI39" t="s">
+      <c r="AK39" t="s">
         <v>580</v>
       </c>
-      <c r="AK39" t="s">
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="s">
         <v>581</v>
       </c>
-      <c r="AL39">
-        <v>0</v>
-      </c>
-      <c r="AM39" t="s">
+      <c r="AN39" t="s">
         <v>582</v>
-      </c>
-      <c r="AN39" t="s">
-        <v>583</v>
       </c>
       <c r="AO39">
         <v>0</v>
@@ -33921,28 +33918,28 @@
         <v>50</v>
       </c>
       <c r="G40" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H40" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L40">
         <v>0.5</v>
       </c>
       <c r="M40" t="s">
+        <v>575</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
         <v>576</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40" t="s">
-        <v>577</v>
       </c>
       <c r="P40">
         <v>0.5</v>
@@ -33975,28 +33972,28 @@
         <v>1</v>
       </c>
       <c r="AE40" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG40" t="s">
         <v>578</v>
       </c>
-      <c r="AG40" t="s">
+      <c r="AH40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="s">
         <v>579</v>
       </c>
-      <c r="AH40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI40" t="s">
+      <c r="AK40" t="s">
         <v>580</v>
       </c>
-      <c r="AK40" t="s">
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="s">
         <v>581</v>
       </c>
-      <c r="AL40">
-        <v>0</v>
-      </c>
-      <c r="AM40" t="s">
+      <c r="AN40" t="s">
         <v>582</v>
-      </c>
-      <c r="AN40" t="s">
-        <v>583</v>
       </c>
       <c r="AO40">
         <v>0</v>
@@ -34040,19 +34037,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L41">
         <v>0.5</v>
       </c>
       <c r="M41" t="s">
+        <v>575</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
         <v>576</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41" t="s">
-        <v>577</v>
       </c>
       <c r="P41">
         <v>0.5</v>
@@ -34085,28 +34082,28 @@
         <v>1</v>
       </c>
       <c r="AE41" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG41" t="s">
         <v>578</v>
       </c>
-      <c r="AG41" t="s">
+      <c r="AH41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="s">
         <v>579</v>
       </c>
-      <c r="AH41" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI41" t="s">
+      <c r="AK41" t="s">
         <v>580</v>
       </c>
-      <c r="AK41" t="s">
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="s">
         <v>581</v>
       </c>
-      <c r="AL41">
-        <v>0</v>
-      </c>
-      <c r="AM41" t="s">
+      <c r="AN41" t="s">
         <v>582</v>
-      </c>
-      <c r="AN41" t="s">
-        <v>583</v>
       </c>
       <c r="AO41">
         <v>0</v>
@@ -34150,19 +34147,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L42">
         <v>0.5</v>
       </c>
       <c r="M42" t="s">
+        <v>575</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
         <v>576</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42" t="s">
-        <v>577</v>
       </c>
       <c r="P42">
         <v>0.5</v>
@@ -34195,28 +34192,28 @@
         <v>1</v>
       </c>
       <c r="AE42" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG42" t="s">
         <v>578</v>
       </c>
-      <c r="AG42" t="s">
+      <c r="AH42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="s">
         <v>579</v>
       </c>
-      <c r="AH42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="s">
+      <c r="AK42" t="s">
         <v>580</v>
       </c>
-      <c r="AK42" t="s">
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="s">
         <v>581</v>
       </c>
-      <c r="AL42">
-        <v>0</v>
-      </c>
-      <c r="AM42" t="s">
+      <c r="AN42" t="s">
         <v>582</v>
-      </c>
-      <c r="AN42" t="s">
-        <v>583</v>
       </c>
       <c r="AO42">
         <v>0</v>
@@ -34260,19 +34257,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L43">
         <v>0.5</v>
       </c>
       <c r="M43" t="s">
+        <v>575</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
         <v>576</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43" t="s">
-        <v>577</v>
       </c>
       <c r="P43">
         <v>0.5</v>
@@ -34305,28 +34302,28 @@
         <v>1</v>
       </c>
       <c r="AE43" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG43" t="s">
         <v>578</v>
       </c>
-      <c r="AG43" t="s">
+      <c r="AH43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="s">
         <v>579</v>
       </c>
-      <c r="AH43" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI43" t="s">
+      <c r="AK43" t="s">
         <v>580</v>
       </c>
-      <c r="AK43" t="s">
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="s">
         <v>581</v>
       </c>
-      <c r="AL43">
-        <v>0</v>
-      </c>
-      <c r="AM43" t="s">
+      <c r="AN43" t="s">
         <v>582</v>
-      </c>
-      <c r="AN43" t="s">
-        <v>583</v>
       </c>
       <c r="AO43">
         <v>0</v>
@@ -34361,28 +34358,28 @@
         <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H44" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L44">
         <v>0.5</v>
       </c>
       <c r="M44" t="s">
+        <v>575</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
         <v>576</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44" t="s">
-        <v>577</v>
       </c>
       <c r="P44">
         <v>0.5</v>
@@ -34415,28 +34412,28 @@
         <v>1</v>
       </c>
       <c r="AE44" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG44" t="s">
         <v>578</v>
       </c>
-      <c r="AG44" t="s">
+      <c r="AH44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="s">
         <v>579</v>
       </c>
-      <c r="AH44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="s">
+      <c r="AK44" t="s">
         <v>580</v>
       </c>
-      <c r="AK44" t="s">
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="s">
         <v>581</v>
       </c>
-      <c r="AL44">
-        <v>0</v>
-      </c>
-      <c r="AM44" t="s">
+      <c r="AN44" t="s">
         <v>582</v>
-      </c>
-      <c r="AN44" t="s">
-        <v>583</v>
       </c>
       <c r="AO44">
         <v>0</v>
@@ -34480,19 +34477,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L45">
         <v>0.5</v>
       </c>
       <c r="M45" t="s">
+        <v>575</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
         <v>576</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45" t="s">
-        <v>577</v>
       </c>
       <c r="P45">
         <v>0.5</v>
@@ -34525,28 +34522,28 @@
         <v>1</v>
       </c>
       <c r="AE45" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG45" t="s">
         <v>578</v>
       </c>
-      <c r="AG45" t="s">
+      <c r="AH45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="s">
         <v>579</v>
       </c>
-      <c r="AH45" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI45" t="s">
+      <c r="AK45" t="s">
         <v>580</v>
       </c>
-      <c r="AK45" t="s">
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="s">
         <v>581</v>
       </c>
-      <c r="AL45">
-        <v>0</v>
-      </c>
-      <c r="AM45" t="s">
+      <c r="AN45" t="s">
         <v>582</v>
-      </c>
-      <c r="AN45" t="s">
-        <v>583</v>
       </c>
       <c r="AO45">
         <v>0</v>
@@ -34590,19 +34587,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L46">
         <v>0.5</v>
       </c>
       <c r="M46" t="s">
+        <v>575</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
         <v>576</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46" t="s">
-        <v>577</v>
       </c>
       <c r="P46">
         <v>0.5</v>
@@ -34635,28 +34632,28 @@
         <v>1</v>
       </c>
       <c r="AE46" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG46" t="s">
         <v>578</v>
       </c>
-      <c r="AG46" t="s">
+      <c r="AH46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="s">
         <v>579</v>
       </c>
-      <c r="AH46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI46" t="s">
+      <c r="AK46" t="s">
         <v>580</v>
       </c>
-      <c r="AK46" t="s">
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="s">
         <v>581</v>
       </c>
-      <c r="AL46">
-        <v>0</v>
-      </c>
-      <c r="AM46" t="s">
+      <c r="AN46" t="s">
         <v>582</v>
-      </c>
-      <c r="AN46" t="s">
-        <v>583</v>
       </c>
       <c r="AO46">
         <v>0</v>
@@ -34691,28 +34688,28 @@
         <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H47" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L47">
         <v>0.5</v>
       </c>
       <c r="M47" t="s">
+        <v>575</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
         <v>576</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47" t="s">
-        <v>577</v>
       </c>
       <c r="P47">
         <v>0.5</v>
@@ -34745,28 +34742,28 @@
         <v>1</v>
       </c>
       <c r="AE47" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG47" t="s">
         <v>578</v>
       </c>
-      <c r="AG47" t="s">
+      <c r="AH47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="s">
         <v>579</v>
       </c>
-      <c r="AH47" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI47" t="s">
+      <c r="AK47" t="s">
         <v>580</v>
       </c>
-      <c r="AK47" t="s">
+      <c r="AL47">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="s">
         <v>581</v>
       </c>
-      <c r="AL47">
-        <v>0</v>
-      </c>
-      <c r="AM47" t="s">
+      <c r="AN47" t="s">
         <v>582</v>
-      </c>
-      <c r="AN47" t="s">
-        <v>583</v>
       </c>
       <c r="AO47">
         <v>0</v>
@@ -34810,19 +34807,19 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L48">
         <v>0.5</v>
       </c>
       <c r="M48" t="s">
+        <v>575</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
         <v>576</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48" t="s">
-        <v>577</v>
       </c>
       <c r="P48">
         <v>0.5</v>
@@ -34855,28 +34852,28 @@
         <v>1</v>
       </c>
       <c r="AE48" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG48" t="s">
         <v>578</v>
       </c>
-      <c r="AG48" t="s">
+      <c r="AH48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="s">
         <v>579</v>
       </c>
-      <c r="AH48" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI48" t="s">
+      <c r="AK48" t="s">
         <v>580</v>
       </c>
-      <c r="AK48" t="s">
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="s">
         <v>581</v>
       </c>
-      <c r="AL48">
-        <v>0</v>
-      </c>
-      <c r="AM48" t="s">
+      <c r="AN48" t="s">
         <v>582</v>
-      </c>
-      <c r="AN48" t="s">
-        <v>583</v>
       </c>
       <c r="AO48">
         <v>0</v>
@@ -34920,19 +34917,19 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L49">
         <v>0.5</v>
       </c>
       <c r="M49" t="s">
+        <v>575</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
         <v>576</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49" t="s">
-        <v>577</v>
       </c>
       <c r="P49">
         <v>0.5</v>
@@ -34965,28 +34962,28 @@
         <v>1</v>
       </c>
       <c r="AE49" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG49" t="s">
         <v>578</v>
       </c>
-      <c r="AG49" t="s">
+      <c r="AH49" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="s">
         <v>579</v>
       </c>
-      <c r="AH49" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI49" t="s">
+      <c r="AK49" t="s">
         <v>580</v>
       </c>
-      <c r="AK49" t="s">
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49" t="s">
         <v>581</v>
       </c>
-      <c r="AL49">
-        <v>0</v>
-      </c>
-      <c r="AM49" t="s">
+      <c r="AN49" t="s">
         <v>582</v>
-      </c>
-      <c r="AN49" t="s">
-        <v>583</v>
       </c>
       <c r="AO49">
         <v>0</v>
@@ -35030,19 +35027,19 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L50">
         <v>0.5</v>
       </c>
       <c r="M50" t="s">
+        <v>575</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
         <v>576</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50" t="s">
-        <v>577</v>
       </c>
       <c r="P50">
         <v>0.5</v>
@@ -35075,28 +35072,28 @@
         <v>1</v>
       </c>
       <c r="AE50" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG50" t="s">
         <v>578</v>
       </c>
-      <c r="AG50" t="s">
+      <c r="AH50" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="s">
         <v>579</v>
       </c>
-      <c r="AH50" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI50" t="s">
+      <c r="AK50" t="s">
         <v>580</v>
       </c>
-      <c r="AK50" t="s">
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="s">
         <v>581</v>
       </c>
-      <c r="AL50">
-        <v>0</v>
-      </c>
-      <c r="AM50" t="s">
+      <c r="AN50" t="s">
         <v>582</v>
-      </c>
-      <c r="AN50" t="s">
-        <v>583</v>
       </c>
       <c r="AO50">
         <v>0</v>
@@ -35131,28 +35128,28 @@
         <v>20</v>
       </c>
       <c r="G51" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H51" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L51">
         <v>0.5</v>
       </c>
       <c r="M51" t="s">
+        <v>575</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
         <v>576</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51" t="s">
-        <v>577</v>
       </c>
       <c r="P51">
         <v>0.5</v>
@@ -35185,28 +35182,28 @@
         <v>1</v>
       </c>
       <c r="AE51" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG51" t="s">
         <v>578</v>
       </c>
-      <c r="AG51" t="s">
+      <c r="AH51" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="s">
         <v>579</v>
       </c>
-      <c r="AH51" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI51" t="s">
+      <c r="AK51" t="s">
         <v>580</v>
       </c>
-      <c r="AK51" t="s">
+      <c r="AL51">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="s">
         <v>581</v>
       </c>
-      <c r="AL51">
-        <v>0</v>
-      </c>
-      <c r="AM51" t="s">
+      <c r="AN51" t="s">
         <v>582</v>
-      </c>
-      <c r="AN51" t="s">
-        <v>583</v>
       </c>
       <c r="AO51">
         <v>0</v>
@@ -35241,28 +35238,28 @@
         <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H52" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L52">
         <v>0.5</v>
       </c>
       <c r="M52" t="s">
+        <v>575</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
         <v>576</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52" t="s">
-        <v>577</v>
       </c>
       <c r="P52">
         <v>0.5</v>
@@ -35295,28 +35292,28 @@
         <v>1</v>
       </c>
       <c r="AE52" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG52" t="s">
         <v>578</v>
       </c>
-      <c r="AG52" t="s">
+      <c r="AH52" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI52" t="s">
         <v>579</v>
       </c>
-      <c r="AH52" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI52" t="s">
+      <c r="AK52" t="s">
         <v>580</v>
       </c>
-      <c r="AK52" t="s">
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52" t="s">
         <v>581</v>
       </c>
-      <c r="AL52">
-        <v>0</v>
-      </c>
-      <c r="AM52" t="s">
+      <c r="AN52" t="s">
         <v>582</v>
-      </c>
-      <c r="AN52" t="s">
-        <v>583</v>
       </c>
       <c r="AO52">
         <v>0</v>
@@ -35351,28 +35348,28 @@
         <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H53" t="s">
+        <v>573</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
         <v>574</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="K53" t="s">
-        <v>575</v>
       </c>
       <c r="L53">
         <v>0.5</v>
       </c>
       <c r="M53" t="s">
+        <v>575</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
         <v>576</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53" t="s">
-        <v>577</v>
       </c>
       <c r="P53">
         <v>0.5</v>
@@ -35405,28 +35402,28 @@
         <v>1</v>
       </c>
       <c r="AE53" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG53" t="s">
         <v>578</v>
       </c>
-      <c r="AG53" t="s">
+      <c r="AH53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="s">
         <v>579</v>
       </c>
-      <c r="AH53" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI53" t="s">
+      <c r="AK53" t="s">
         <v>580</v>
       </c>
-      <c r="AK53" t="s">
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53" t="s">
         <v>581</v>
       </c>
-      <c r="AL53">
-        <v>0</v>
-      </c>
-      <c r="AM53" t="s">
+      <c r="AN53" t="s">
         <v>582</v>
-      </c>
-      <c r="AN53" t="s">
-        <v>583</v>
       </c>
       <c r="AO53">
         <v>0</v>
@@ -35470,19 +35467,19 @@
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L54">
         <v>0.5</v>
       </c>
       <c r="M54" t="s">
+        <v>575</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s">
         <v>576</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54" t="s">
-        <v>577</v>
       </c>
       <c r="P54">
         <v>0.5</v>
@@ -35515,28 +35512,28 @@
         <v>1</v>
       </c>
       <c r="AE54" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG54" t="s">
         <v>578</v>
       </c>
-      <c r="AG54" t="s">
+      <c r="AH54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI54" t="s">
         <v>579</v>
       </c>
-      <c r="AH54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI54" t="s">
+      <c r="AK54" t="s">
         <v>580</v>
       </c>
-      <c r="AK54" t="s">
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="s">
         <v>581</v>
       </c>
-      <c r="AL54">
-        <v>0</v>
-      </c>
-      <c r="AM54" t="s">
+      <c r="AN54" t="s">
         <v>582</v>
-      </c>
-      <c r="AN54" t="s">
-        <v>583</v>
       </c>
       <c r="AO54">
         <v>0</v>
@@ -35571,28 +35568,28 @@
         <v>20</v>
       </c>
       <c r="G55" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H55" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L55">
         <v>0.5</v>
       </c>
       <c r="M55" t="s">
+        <v>575</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
         <v>576</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55" t="s">
-        <v>577</v>
       </c>
       <c r="P55">
         <v>0.5</v>
@@ -35625,28 +35622,28 @@
         <v>1</v>
       </c>
       <c r="AE55" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG55" t="s">
         <v>578</v>
       </c>
-      <c r="AG55" t="s">
+      <c r="AH55" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI55" t="s">
         <v>579</v>
       </c>
-      <c r="AH55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI55" t="s">
+      <c r="AK55" t="s">
         <v>580</v>
       </c>
-      <c r="AK55" t="s">
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55" t="s">
         <v>581</v>
       </c>
-      <c r="AL55">
-        <v>0</v>
-      </c>
-      <c r="AM55" t="s">
+      <c r="AN55" t="s">
         <v>582</v>
-      </c>
-      <c r="AN55" t="s">
-        <v>583</v>
       </c>
       <c r="AO55">
         <v>0</v>
@@ -35681,28 +35678,28 @@
         <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H56" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L56">
         <v>0.5</v>
       </c>
       <c r="M56" t="s">
+        <v>575</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56" t="s">
         <v>576</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56" t="s">
-        <v>577</v>
       </c>
       <c r="P56">
         <v>0.5</v>
@@ -35735,28 +35732,28 @@
         <v>1</v>
       </c>
       <c r="AE56" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG56" t="s">
         <v>578</v>
       </c>
-      <c r="AG56" t="s">
+      <c r="AH56" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI56" t="s">
         <v>579</v>
       </c>
-      <c r="AH56" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI56" t="s">
+      <c r="AK56" t="s">
         <v>580</v>
       </c>
-      <c r="AK56" t="s">
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56" t="s">
         <v>581</v>
       </c>
-      <c r="AL56">
-        <v>0</v>
-      </c>
-      <c r="AM56" t="s">
+      <c r="AN56" t="s">
         <v>582</v>
-      </c>
-      <c r="AN56" t="s">
-        <v>583</v>
       </c>
       <c r="AO56">
         <v>0</v>
@@ -35791,28 +35788,28 @@
         <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H57" t="s">
+        <v>573</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
         <v>574</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="K57" t="s">
-        <v>575</v>
       </c>
       <c r="L57">
         <v>0.5</v>
       </c>
       <c r="M57" t="s">
+        <v>575</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57" t="s">
         <v>576</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57" t="s">
-        <v>577</v>
       </c>
       <c r="P57">
         <v>0.5</v>
@@ -35845,28 +35842,28 @@
         <v>1</v>
       </c>
       <c r="AE57" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG57" t="s">
         <v>578</v>
       </c>
-      <c r="AG57" t="s">
+      <c r="AH57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI57" t="s">
         <v>579</v>
       </c>
-      <c r="AH57" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI57" t="s">
+      <c r="AK57" t="s">
         <v>580</v>
       </c>
-      <c r="AK57" t="s">
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57" t="s">
         <v>581</v>
       </c>
-      <c r="AL57">
-        <v>0</v>
-      </c>
-      <c r="AM57" t="s">
+      <c r="AN57" t="s">
         <v>582</v>
-      </c>
-      <c r="AN57" t="s">
-        <v>583</v>
       </c>
       <c r="AO57">
         <v>0</v>
@@ -35910,19 +35907,19 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L58">
         <v>0.5</v>
       </c>
       <c r="M58" t="s">
+        <v>575</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" t="s">
         <v>576</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58" t="s">
-        <v>577</v>
       </c>
       <c r="P58">
         <v>0.5</v>
@@ -35955,28 +35952,28 @@
         <v>1</v>
       </c>
       <c r="AE58" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG58" t="s">
         <v>578</v>
       </c>
-      <c r="AG58" t="s">
+      <c r="AH58" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI58" t="s">
         <v>579</v>
       </c>
-      <c r="AH58" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI58" t="s">
+      <c r="AK58" t="s">
         <v>580</v>
       </c>
-      <c r="AK58" t="s">
+      <c r="AL58">
+        <v>0</v>
+      </c>
+      <c r="AM58" t="s">
         <v>581</v>
       </c>
-      <c r="AL58">
-        <v>0</v>
-      </c>
-      <c r="AM58" t="s">
+      <c r="AN58" t="s">
         <v>582</v>
-      </c>
-      <c r="AN58" t="s">
-        <v>583</v>
       </c>
       <c r="AO58">
         <v>0</v>
@@ -36011,28 +36008,28 @@
         <v>20</v>
       </c>
       <c r="G59" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H59" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L59">
         <v>0.5</v>
       </c>
       <c r="M59" t="s">
+        <v>575</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
         <v>576</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59" t="s">
-        <v>577</v>
       </c>
       <c r="P59">
         <v>0.5</v>
@@ -36065,28 +36062,28 @@
         <v>1</v>
       </c>
       <c r="AE59" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG59" t="s">
         <v>578</v>
       </c>
-      <c r="AG59" t="s">
+      <c r="AH59" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI59" t="s">
         <v>579</v>
       </c>
-      <c r="AH59" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI59" t="s">
+      <c r="AK59" t="s">
         <v>580</v>
       </c>
-      <c r="AK59" t="s">
+      <c r="AL59">
+        <v>0</v>
+      </c>
+      <c r="AM59" t="s">
         <v>581</v>
       </c>
-      <c r="AL59">
-        <v>0</v>
-      </c>
-      <c r="AM59" t="s">
+      <c r="AN59" t="s">
         <v>582</v>
-      </c>
-      <c r="AN59" t="s">
-        <v>583</v>
       </c>
       <c r="AO59">
         <v>0</v>
@@ -36121,28 +36118,28 @@
         <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H60" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L60">
         <v>0.5</v>
       </c>
       <c r="M60" t="s">
+        <v>575</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60" t="s">
         <v>576</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60" t="s">
-        <v>577</v>
       </c>
       <c r="P60">
         <v>0.5</v>
@@ -36175,28 +36172,28 @@
         <v>1</v>
       </c>
       <c r="AE60" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG60" t="s">
         <v>578</v>
       </c>
-      <c r="AG60" t="s">
+      <c r="AH60" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI60" t="s">
         <v>579</v>
       </c>
-      <c r="AH60" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI60" t="s">
+      <c r="AK60" t="s">
         <v>580</v>
       </c>
-      <c r="AK60" t="s">
+      <c r="AL60">
+        <v>0</v>
+      </c>
+      <c r="AM60" t="s">
         <v>581</v>
       </c>
-      <c r="AL60">
-        <v>0</v>
-      </c>
-      <c r="AM60" t="s">
+      <c r="AN60" t="s">
         <v>582</v>
-      </c>
-      <c r="AN60" t="s">
-        <v>583</v>
       </c>
       <c r="AO60">
         <v>0</v>
@@ -36231,28 +36228,28 @@
         <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H61" t="s">
+        <v>573</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
         <v>574</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="K61" t="s">
-        <v>575</v>
       </c>
       <c r="L61">
         <v>0.5</v>
       </c>
       <c r="M61" t="s">
+        <v>575</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61" t="s">
         <v>576</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61" t="s">
-        <v>577</v>
       </c>
       <c r="P61">
         <v>0.5</v>
@@ -36285,28 +36282,28 @@
         <v>1</v>
       </c>
       <c r="AE61" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG61" t="s">
         <v>578</v>
       </c>
-      <c r="AG61" t="s">
+      <c r="AH61" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI61" t="s">
         <v>579</v>
       </c>
-      <c r="AH61" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI61" t="s">
+      <c r="AK61" t="s">
         <v>580</v>
       </c>
-      <c r="AK61" t="s">
+      <c r="AL61">
+        <v>0</v>
+      </c>
+      <c r="AM61" t="s">
         <v>581</v>
       </c>
-      <c r="AL61">
-        <v>0</v>
-      </c>
-      <c r="AM61" t="s">
+      <c r="AN61" t="s">
         <v>582</v>
-      </c>
-      <c r="AN61" t="s">
-        <v>583</v>
       </c>
       <c r="AO61">
         <v>0</v>
@@ -36350,19 +36347,19 @@
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L62">
         <v>0.5</v>
       </c>
       <c r="M62" t="s">
+        <v>575</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62" t="s">
         <v>576</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62" t="s">
-        <v>577</v>
       </c>
       <c r="P62">
         <v>0.5</v>
@@ -36395,28 +36392,28 @@
         <v>1</v>
       </c>
       <c r="AE62" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG62" t="s">
         <v>578</v>
       </c>
-      <c r="AG62" t="s">
+      <c r="AH62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI62" t="s">
         <v>579</v>
       </c>
-      <c r="AH62" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI62" t="s">
+      <c r="AK62" t="s">
         <v>580</v>
       </c>
-      <c r="AK62" t="s">
+      <c r="AL62">
+        <v>0</v>
+      </c>
+      <c r="AM62" t="s">
         <v>581</v>
       </c>
-      <c r="AL62">
-        <v>0</v>
-      </c>
-      <c r="AM62" t="s">
+      <c r="AN62" t="s">
         <v>582</v>
-      </c>
-      <c r="AN62" t="s">
-        <v>583</v>
       </c>
       <c r="AO62">
         <v>0</v>
@@ -36460,19 +36457,19 @@
         <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L63">
         <v>0.5</v>
       </c>
       <c r="M63" t="s">
+        <v>575</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63" t="s">
         <v>576</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63" t="s">
-        <v>577</v>
       </c>
       <c r="P63">
         <v>0.5</v>
@@ -36505,28 +36502,28 @@
         <v>1</v>
       </c>
       <c r="AE63" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG63" t="s">
         <v>578</v>
       </c>
-      <c r="AG63" t="s">
+      <c r="AH63" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI63" t="s">
         <v>579</v>
       </c>
-      <c r="AH63" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI63" t="s">
+      <c r="AK63" t="s">
         <v>580</v>
       </c>
-      <c r="AK63" t="s">
+      <c r="AL63">
+        <v>0</v>
+      </c>
+      <c r="AM63" t="s">
         <v>581</v>
       </c>
-      <c r="AL63">
-        <v>0</v>
-      </c>
-      <c r="AM63" t="s">
+      <c r="AN63" t="s">
         <v>582</v>
-      </c>
-      <c r="AN63" t="s">
-        <v>583</v>
       </c>
       <c r="AO63">
         <v>0</v>
@@ -36570,19 +36567,19 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L64">
         <v>0.5</v>
       </c>
       <c r="M64" t="s">
+        <v>575</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64" t="s">
         <v>576</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64" t="s">
-        <v>577</v>
       </c>
       <c r="P64">
         <v>0.5</v>
@@ -36615,28 +36612,28 @@
         <v>1</v>
       </c>
       <c r="AE64" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG64" t="s">
         <v>578</v>
       </c>
-      <c r="AG64" t="s">
+      <c r="AH64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI64" t="s">
         <v>579</v>
       </c>
-      <c r="AH64" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI64" t="s">
+      <c r="AK64" t="s">
         <v>580</v>
       </c>
-      <c r="AK64" t="s">
+      <c r="AL64">
+        <v>0</v>
+      </c>
+      <c r="AM64" t="s">
         <v>581</v>
       </c>
-      <c r="AL64">
-        <v>0</v>
-      </c>
-      <c r="AM64" t="s">
+      <c r="AN64" t="s">
         <v>582</v>
-      </c>
-      <c r="AN64" t="s">
-        <v>583</v>
       </c>
       <c r="AO64">
         <v>0</v>
@@ -36680,19 +36677,19 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L65">
         <v>0.5</v>
       </c>
       <c r="M65" t="s">
+        <v>575</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
         <v>576</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65" t="s">
-        <v>577</v>
       </c>
       <c r="P65">
         <v>0.5</v>
@@ -36725,28 +36722,28 @@
         <v>1</v>
       </c>
       <c r="AE65" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG65" t="s">
         <v>578</v>
       </c>
-      <c r="AG65" t="s">
+      <c r="AH65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI65" t="s">
         <v>579</v>
       </c>
-      <c r="AH65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI65" t="s">
+      <c r="AK65" t="s">
         <v>580</v>
       </c>
-      <c r="AK65" t="s">
+      <c r="AL65">
+        <v>0</v>
+      </c>
+      <c r="AM65" t="s">
         <v>581</v>
       </c>
-      <c r="AL65">
-        <v>0</v>
-      </c>
-      <c r="AM65" t="s">
+      <c r="AN65" t="s">
         <v>582</v>
-      </c>
-      <c r="AN65" t="s">
-        <v>583</v>
       </c>
       <c r="AO65">
         <v>0</v>
@@ -36790,19 +36787,19 @@
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L66">
         <v>0.5</v>
       </c>
       <c r="M66" t="s">
+        <v>575</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66" t="s">
         <v>576</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66" t="s">
-        <v>577</v>
       </c>
       <c r="P66">
         <v>0.5</v>
@@ -36835,28 +36832,28 @@
         <v>1</v>
       </c>
       <c r="AE66" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG66" t="s">
         <v>578</v>
       </c>
-      <c r="AG66" t="s">
+      <c r="AH66" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI66" t="s">
         <v>579</v>
       </c>
-      <c r="AH66" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI66" t="s">
+      <c r="AK66" t="s">
         <v>580</v>
       </c>
-      <c r="AK66" t="s">
+      <c r="AL66">
+        <v>0</v>
+      </c>
+      <c r="AM66" t="s">
         <v>581</v>
       </c>
-      <c r="AL66">
-        <v>0</v>
-      </c>
-      <c r="AM66" t="s">
+      <c r="AN66" t="s">
         <v>582</v>
-      </c>
-      <c r="AN66" t="s">
-        <v>583</v>
       </c>
       <c r="AO66">
         <v>0</v>
@@ -36891,28 +36888,28 @@
         <v>20</v>
       </c>
       <c r="G67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H67" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L67">
         <v>0.5</v>
       </c>
       <c r="M67" t="s">
+        <v>575</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
         <v>576</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67" t="s">
-        <v>577</v>
       </c>
       <c r="P67">
         <v>0.5</v>
@@ -36945,28 +36942,28 @@
         <v>1</v>
       </c>
       <c r="AE67" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG67" t="s">
         <v>578</v>
       </c>
-      <c r="AG67" t="s">
+      <c r="AH67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI67" t="s">
         <v>579</v>
       </c>
-      <c r="AH67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI67" t="s">
+      <c r="AK67" t="s">
         <v>580</v>
       </c>
-      <c r="AK67" t="s">
+      <c r="AL67">
+        <v>0</v>
+      </c>
+      <c r="AM67" t="s">
         <v>581</v>
       </c>
-      <c r="AL67">
-        <v>0</v>
-      </c>
-      <c r="AM67" t="s">
+      <c r="AN67" t="s">
         <v>582</v>
-      </c>
-      <c r="AN67" t="s">
-        <v>583</v>
       </c>
       <c r="AO67">
         <v>0</v>
@@ -37001,28 +36998,28 @@
         <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H68" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L68">
         <v>0.5</v>
       </c>
       <c r="M68" t="s">
+        <v>575</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68" t="s">
         <v>576</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68" t="s">
-        <v>577</v>
       </c>
       <c r="P68">
         <v>0.5</v>
@@ -37055,28 +37052,28 @@
         <v>1</v>
       </c>
       <c r="AE68" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG68" t="s">
         <v>578</v>
       </c>
-      <c r="AG68" t="s">
+      <c r="AH68" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI68" t="s">
         <v>579</v>
       </c>
-      <c r="AH68" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI68" t="s">
+      <c r="AK68" t="s">
         <v>580</v>
       </c>
-      <c r="AK68" t="s">
+      <c r="AL68">
+        <v>0</v>
+      </c>
+      <c r="AM68" t="s">
         <v>581</v>
       </c>
-      <c r="AL68">
-        <v>0</v>
-      </c>
-      <c r="AM68" t="s">
+      <c r="AN68" t="s">
         <v>582</v>
-      </c>
-      <c r="AN68" t="s">
-        <v>583</v>
       </c>
       <c r="AO68">
         <v>0</v>
@@ -37111,28 +37108,28 @@
         <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H69" t="s">
+        <v>573</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="s">
         <v>574</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="K69" t="s">
-        <v>575</v>
       </c>
       <c r="L69">
         <v>0.5</v>
       </c>
       <c r="M69" t="s">
+        <v>575</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
         <v>576</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69" t="s">
-        <v>577</v>
       </c>
       <c r="P69">
         <v>0.5</v>
@@ -37165,28 +37162,28 @@
         <v>1</v>
       </c>
       <c r="AE69" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG69" t="s">
         <v>578</v>
       </c>
-      <c r="AG69" t="s">
+      <c r="AH69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI69" t="s">
         <v>579</v>
       </c>
-      <c r="AH69" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI69" t="s">
+      <c r="AK69" t="s">
         <v>580</v>
       </c>
-      <c r="AK69" t="s">
+      <c r="AL69">
+        <v>0</v>
+      </c>
+      <c r="AM69" t="s">
         <v>581</v>
       </c>
-      <c r="AL69">
-        <v>0</v>
-      </c>
-      <c r="AM69" t="s">
+      <c r="AN69" t="s">
         <v>582</v>
-      </c>
-      <c r="AN69" t="s">
-        <v>583</v>
       </c>
       <c r="AO69">
         <v>0</v>
@@ -37221,28 +37218,28 @@
         <v>50</v>
       </c>
       <c r="G70" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H70" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L70">
         <v>0.5</v>
       </c>
       <c r="M70" t="s">
+        <v>575</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70" t="s">
         <v>576</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70" t="s">
-        <v>577</v>
       </c>
       <c r="P70">
         <v>0.5</v>
@@ -37275,28 +37272,28 @@
         <v>1</v>
       </c>
       <c r="AE70" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG70" t="s">
         <v>578</v>
       </c>
-      <c r="AG70" t="s">
+      <c r="AH70" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI70" t="s">
         <v>579</v>
       </c>
-      <c r="AH70" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI70" t="s">
+      <c r="AK70" t="s">
         <v>580</v>
       </c>
-      <c r="AK70" t="s">
+      <c r="AL70">
+        <v>0</v>
+      </c>
+      <c r="AM70" t="s">
         <v>581</v>
       </c>
-      <c r="AL70">
-        <v>0</v>
-      </c>
-      <c r="AM70" t="s">
+      <c r="AN70" t="s">
         <v>582</v>
-      </c>
-      <c r="AN70" t="s">
-        <v>583</v>
       </c>
       <c r="AO70">
         <v>0</v>
@@ -37340,19 +37337,19 @@
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L71">
         <v>0.5</v>
       </c>
       <c r="M71" t="s">
+        <v>575</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71" t="s">
         <v>576</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71" t="s">
-        <v>577</v>
       </c>
       <c r="P71">
         <v>0.5</v>
@@ -37385,28 +37382,28 @@
         <v>1</v>
       </c>
       <c r="AE71" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG71" t="s">
         <v>578</v>
       </c>
-      <c r="AG71" t="s">
+      <c r="AH71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI71" t="s">
         <v>579</v>
       </c>
-      <c r="AH71" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI71" t="s">
+      <c r="AK71" t="s">
         <v>580</v>
       </c>
-      <c r="AK71" t="s">
+      <c r="AL71">
+        <v>0</v>
+      </c>
+      <c r="AM71" t="s">
         <v>581</v>
       </c>
-      <c r="AL71">
-        <v>0</v>
-      </c>
-      <c r="AM71" t="s">
+      <c r="AN71" t="s">
         <v>582</v>
-      </c>
-      <c r="AN71" t="s">
-        <v>583</v>
       </c>
       <c r="AO71">
         <v>0</v>
@@ -37450,19 +37447,19 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L72">
         <v>0.5</v>
       </c>
       <c r="M72" t="s">
+        <v>575</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72" t="s">
         <v>576</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72" t="s">
-        <v>577</v>
       </c>
       <c r="P72">
         <v>0.5</v>
@@ -37495,28 +37492,28 @@
         <v>1</v>
       </c>
       <c r="AE72" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG72" t="s">
         <v>578</v>
       </c>
-      <c r="AG72" t="s">
+      <c r="AH72" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI72" t="s">
         <v>579</v>
       </c>
-      <c r="AH72" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI72" t="s">
+      <c r="AK72" t="s">
         <v>580</v>
       </c>
-      <c r="AK72" t="s">
+      <c r="AL72">
+        <v>0</v>
+      </c>
+      <c r="AM72" t="s">
         <v>581</v>
       </c>
-      <c r="AL72">
-        <v>0</v>
-      </c>
-      <c r="AM72" t="s">
+      <c r="AN72" t="s">
         <v>582</v>
-      </c>
-      <c r="AN72" t="s">
-        <v>583</v>
       </c>
       <c r="AO72">
         <v>0</v>
@@ -37551,28 +37548,28 @@
         <v>20</v>
       </c>
       <c r="G73" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H73" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L73">
         <v>0.5</v>
       </c>
       <c r="M73" t="s">
+        <v>575</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" t="s">
         <v>576</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73" t="s">
-        <v>577</v>
       </c>
       <c r="P73">
         <v>0.5</v>
@@ -37605,28 +37602,28 @@
         <v>1</v>
       </c>
       <c r="AE73" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG73" t="s">
         <v>578</v>
       </c>
-      <c r="AG73" t="s">
+      <c r="AH73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI73" t="s">
         <v>579</v>
       </c>
-      <c r="AH73" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI73" t="s">
+      <c r="AK73" t="s">
         <v>580</v>
       </c>
-      <c r="AK73" t="s">
+      <c r="AL73">
+        <v>0</v>
+      </c>
+      <c r="AM73" t="s">
         <v>581</v>
       </c>
-      <c r="AL73">
-        <v>0</v>
-      </c>
-      <c r="AM73" t="s">
+      <c r="AN73" t="s">
         <v>582</v>
-      </c>
-      <c r="AN73" t="s">
-        <v>583</v>
       </c>
       <c r="AO73">
         <v>0</v>
@@ -37661,28 +37658,28 @@
         <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H74" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L74">
         <v>0.5</v>
       </c>
       <c r="M74" t="s">
+        <v>575</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
         <v>576</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74" t="s">
-        <v>577</v>
       </c>
       <c r="P74">
         <v>0.5</v>
@@ -37715,28 +37712,28 @@
         <v>1</v>
       </c>
       <c r="AE74" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG74" t="s">
         <v>578</v>
       </c>
-      <c r="AG74" t="s">
+      <c r="AH74" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI74" t="s">
         <v>579</v>
       </c>
-      <c r="AH74" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI74" t="s">
+      <c r="AK74" t="s">
         <v>580</v>
       </c>
-      <c r="AK74" t="s">
+      <c r="AL74">
+        <v>0</v>
+      </c>
+      <c r="AM74" t="s">
         <v>581</v>
       </c>
-      <c r="AL74">
-        <v>0</v>
-      </c>
-      <c r="AM74" t="s">
+      <c r="AN74" t="s">
         <v>582</v>
-      </c>
-      <c r="AN74" t="s">
-        <v>583</v>
       </c>
       <c r="AO74">
         <v>0</v>
@@ -37771,28 +37768,28 @@
         <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H75" t="s">
+        <v>573</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
         <v>574</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="K75" t="s">
-        <v>575</v>
       </c>
       <c r="L75">
         <v>0.5</v>
       </c>
       <c r="M75" t="s">
+        <v>575</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75" t="s">
         <v>576</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75" t="s">
-        <v>577</v>
       </c>
       <c r="P75">
         <v>0.5</v>
@@ -37825,28 +37822,28 @@
         <v>1</v>
       </c>
       <c r="AE75" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG75" t="s">
         <v>578</v>
       </c>
-      <c r="AG75" t="s">
+      <c r="AH75" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI75" t="s">
         <v>579</v>
       </c>
-      <c r="AH75" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI75" t="s">
+      <c r="AK75" t="s">
         <v>580</v>
       </c>
-      <c r="AK75" t="s">
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75" t="s">
         <v>581</v>
       </c>
-      <c r="AL75">
-        <v>0</v>
-      </c>
-      <c r="AM75" t="s">
+      <c r="AN75" t="s">
         <v>582</v>
-      </c>
-      <c r="AN75" t="s">
-        <v>583</v>
       </c>
       <c r="AO75">
         <v>0</v>
@@ -37881,28 +37878,28 @@
         <v>50</v>
       </c>
       <c r="G76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H76" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L76">
         <v>0.5</v>
       </c>
       <c r="M76" t="s">
+        <v>575</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76" t="s">
         <v>576</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76" t="s">
-        <v>577</v>
       </c>
       <c r="P76">
         <v>0.5</v>
@@ -37935,28 +37932,28 @@
         <v>1</v>
       </c>
       <c r="AE76" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG76" t="s">
         <v>578</v>
       </c>
-      <c r="AG76" t="s">
+      <c r="AH76" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI76" t="s">
         <v>579</v>
       </c>
-      <c r="AH76" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI76" t="s">
+      <c r="AK76" t="s">
         <v>580</v>
       </c>
-      <c r="AK76" t="s">
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76" t="s">
         <v>581</v>
       </c>
-      <c r="AL76">
-        <v>0</v>
-      </c>
-      <c r="AM76" t="s">
+      <c r="AN76" t="s">
         <v>582</v>
-      </c>
-      <c r="AN76" t="s">
-        <v>583</v>
       </c>
       <c r="AO76">
         <v>0</v>
@@ -38000,19 +37997,19 @@
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L77">
         <v>0.5</v>
       </c>
       <c r="M77" t="s">
+        <v>575</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77" t="s">
         <v>576</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77" t="s">
-        <v>577</v>
       </c>
       <c r="P77">
         <v>0.5</v>
@@ -38045,28 +38042,28 @@
         <v>1</v>
       </c>
       <c r="AE77" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG77" t="s">
         <v>578</v>
       </c>
-      <c r="AG77" t="s">
+      <c r="AH77" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI77" t="s">
         <v>579</v>
       </c>
-      <c r="AH77" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI77" t="s">
+      <c r="AK77" t="s">
         <v>580</v>
       </c>
-      <c r="AK77" t="s">
+      <c r="AL77">
+        <v>0</v>
+      </c>
+      <c r="AM77" t="s">
         <v>581</v>
       </c>
-      <c r="AL77">
-        <v>0</v>
-      </c>
-      <c r="AM77" t="s">
+      <c r="AN77" t="s">
         <v>582</v>
-      </c>
-      <c r="AN77" t="s">
-        <v>583</v>
       </c>
       <c r="AO77">
         <v>0</v>
@@ -38110,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L78">
         <v>0.5</v>
       </c>
       <c r="M78" t="s">
+        <v>575</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78" t="s">
         <v>576</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78" t="s">
-        <v>577</v>
       </c>
       <c r="P78">
         <v>0.5</v>
@@ -38155,28 +38152,28 @@
         <v>1</v>
       </c>
       <c r="AE78" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG78" t="s">
         <v>578</v>
       </c>
-      <c r="AG78" t="s">
+      <c r="AH78" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI78" t="s">
         <v>579</v>
       </c>
-      <c r="AH78" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI78" t="s">
+      <c r="AK78" t="s">
         <v>580</v>
       </c>
-      <c r="AK78" t="s">
+      <c r="AL78">
+        <v>0</v>
+      </c>
+      <c r="AM78" t="s">
         <v>581</v>
       </c>
-      <c r="AL78">
-        <v>0</v>
-      </c>
-      <c r="AM78" t="s">
+      <c r="AN78" t="s">
         <v>582</v>
-      </c>
-      <c r="AN78" t="s">
-        <v>583</v>
       </c>
       <c r="AO78">
         <v>0</v>
@@ -38211,28 +38208,28 @@
         <v>20</v>
       </c>
       <c r="G79" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H79" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L79">
         <v>0.5</v>
       </c>
       <c r="M79" t="s">
+        <v>575</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79" t="s">
         <v>576</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79" t="s">
-        <v>577</v>
       </c>
       <c r="P79">
         <v>0.5</v>
@@ -38265,28 +38262,28 @@
         <v>1</v>
       </c>
       <c r="AE79" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG79" t="s">
         <v>578</v>
       </c>
-      <c r="AG79" t="s">
+      <c r="AH79" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI79" t="s">
         <v>579</v>
       </c>
-      <c r="AH79" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI79" t="s">
+      <c r="AK79" t="s">
         <v>580</v>
       </c>
-      <c r="AK79" t="s">
+      <c r="AL79">
+        <v>0</v>
+      </c>
+      <c r="AM79" t="s">
         <v>581</v>
       </c>
-      <c r="AL79">
-        <v>0</v>
-      </c>
-      <c r="AM79" t="s">
+      <c r="AN79" t="s">
         <v>582</v>
-      </c>
-      <c r="AN79" t="s">
-        <v>583</v>
       </c>
       <c r="AO79">
         <v>0</v>
@@ -38321,28 +38318,28 @@
         <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H80" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L80">
         <v>0.5</v>
       </c>
       <c r="M80" t="s">
+        <v>575</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80" t="s">
         <v>576</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80" t="s">
-        <v>577</v>
       </c>
       <c r="P80">
         <v>0.5</v>
@@ -38375,28 +38372,28 @@
         <v>1</v>
       </c>
       <c r="AE80" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG80" t="s">
         <v>578</v>
       </c>
-      <c r="AG80" t="s">
+      <c r="AH80" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI80" t="s">
         <v>579</v>
       </c>
-      <c r="AH80" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI80" t="s">
+      <c r="AK80" t="s">
         <v>580</v>
       </c>
-      <c r="AK80" t="s">
+      <c r="AL80">
+        <v>0</v>
+      </c>
+      <c r="AM80" t="s">
         <v>581</v>
       </c>
-      <c r="AL80">
-        <v>0</v>
-      </c>
-      <c r="AM80" t="s">
+      <c r="AN80" t="s">
         <v>582</v>
-      </c>
-      <c r="AN80" t="s">
-        <v>583</v>
       </c>
       <c r="AO80">
         <v>0</v>
@@ -38431,28 +38428,28 @@
         <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H81" t="s">
+        <v>573</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
         <v>574</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="K81" t="s">
-        <v>575</v>
       </c>
       <c r="L81">
         <v>0.5</v>
       </c>
       <c r="M81" t="s">
+        <v>575</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81" t="s">
         <v>576</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81" t="s">
-        <v>577</v>
       </c>
       <c r="P81">
         <v>0.5</v>
@@ -38485,28 +38482,28 @@
         <v>1</v>
       </c>
       <c r="AE81" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG81" t="s">
         <v>578</v>
       </c>
-      <c r="AG81" t="s">
+      <c r="AH81" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI81" t="s">
         <v>579</v>
       </c>
-      <c r="AH81" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI81" t="s">
+      <c r="AK81" t="s">
         <v>580</v>
       </c>
-      <c r="AK81" t="s">
+      <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81" t="s">
         <v>581</v>
       </c>
-      <c r="AL81">
-        <v>0</v>
-      </c>
-      <c r="AM81" t="s">
+      <c r="AN81" t="s">
         <v>582</v>
-      </c>
-      <c r="AN81" t="s">
-        <v>583</v>
       </c>
       <c r="AO81">
         <v>0</v>
@@ -38550,19 +38547,19 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L82">
         <v>0.5</v>
       </c>
       <c r="M82" t="s">
+        <v>575</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82" t="s">
         <v>576</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82" t="s">
-        <v>577</v>
       </c>
       <c r="P82">
         <v>0.5</v>
@@ -38595,28 +38592,28 @@
         <v>1</v>
       </c>
       <c r="AE82" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG82" t="s">
         <v>578</v>
       </c>
-      <c r="AG82" t="s">
+      <c r="AH82" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI82" t="s">
         <v>579</v>
       </c>
-      <c r="AH82" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI82" t="s">
+      <c r="AK82" t="s">
         <v>580</v>
       </c>
-      <c r="AK82" t="s">
+      <c r="AL82">
+        <v>0</v>
+      </c>
+      <c r="AM82" t="s">
         <v>581</v>
       </c>
-      <c r="AL82">
-        <v>0</v>
-      </c>
-      <c r="AM82" t="s">
+      <c r="AN82" t="s">
         <v>582</v>
-      </c>
-      <c r="AN82" t="s">
-        <v>583</v>
       </c>
       <c r="AO82">
         <v>0</v>
@@ -38660,19 +38657,19 @@
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L83">
         <v>0.5</v>
       </c>
       <c r="M83" t="s">
+        <v>575</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83" t="s">
         <v>576</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83" t="s">
-        <v>577</v>
       </c>
       <c r="P83">
         <v>0.5</v>
@@ -38705,28 +38702,28 @@
         <v>1</v>
       </c>
       <c r="AE83" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG83" t="s">
         <v>578</v>
       </c>
-      <c r="AG83" t="s">
+      <c r="AH83" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI83" t="s">
         <v>579</v>
       </c>
-      <c r="AH83" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI83" t="s">
+      <c r="AK83" t="s">
         <v>580</v>
       </c>
-      <c r="AK83" t="s">
+      <c r="AL83">
+        <v>0</v>
+      </c>
+      <c r="AM83" t="s">
         <v>581</v>
       </c>
-      <c r="AL83">
-        <v>0</v>
-      </c>
-      <c r="AM83" t="s">
+      <c r="AN83" t="s">
         <v>582</v>
-      </c>
-      <c r="AN83" t="s">
-        <v>583</v>
       </c>
       <c r="AO83">
         <v>0</v>
@@ -38770,19 +38767,19 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L84">
         <v>0.5</v>
       </c>
       <c r="M84" t="s">
+        <v>575</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84" t="s">
         <v>576</v>
-      </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
-      <c r="O84" t="s">
-        <v>577</v>
       </c>
       <c r="P84">
         <v>0.5</v>
@@ -38815,28 +38812,28 @@
         <v>1</v>
       </c>
       <c r="AE84" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG84" t="s">
         <v>578</v>
       </c>
-      <c r="AG84" t="s">
+      <c r="AH84" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI84" t="s">
         <v>579</v>
       </c>
-      <c r="AH84" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI84" t="s">
+      <c r="AK84" t="s">
         <v>580</v>
       </c>
-      <c r="AK84" t="s">
+      <c r="AL84">
+        <v>0</v>
+      </c>
+      <c r="AM84" t="s">
         <v>581</v>
       </c>
-      <c r="AL84">
-        <v>0</v>
-      </c>
-      <c r="AM84" t="s">
+      <c r="AN84" t="s">
         <v>582</v>
-      </c>
-      <c r="AN84" t="s">
-        <v>583</v>
       </c>
       <c r="AO84">
         <v>0</v>
@@ -38880,19 +38877,19 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L85">
         <v>0.5</v>
       </c>
       <c r="M85" t="s">
+        <v>575</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85" t="s">
         <v>576</v>
-      </c>
-      <c r="N85">
-        <v>0</v>
-      </c>
-      <c r="O85" t="s">
-        <v>577</v>
       </c>
       <c r="P85">
         <v>0.5</v>
@@ -38925,28 +38922,28 @@
         <v>1</v>
       </c>
       <c r="AE85" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG85" t="s">
         <v>578</v>
       </c>
-      <c r="AG85" t="s">
+      <c r="AH85" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI85" t="s">
         <v>579</v>
       </c>
-      <c r="AH85" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI85" t="s">
+      <c r="AK85" t="s">
         <v>580</v>
       </c>
-      <c r="AK85" t="s">
+      <c r="AL85">
+        <v>0</v>
+      </c>
+      <c r="AM85" t="s">
         <v>581</v>
       </c>
-      <c r="AL85">
-        <v>0</v>
-      </c>
-      <c r="AM85" t="s">
+      <c r="AN85" t="s">
         <v>582</v>
-      </c>
-      <c r="AN85" t="s">
-        <v>583</v>
       </c>
       <c r="AO85">
         <v>0</v>

--- a/OpsAndMats/Model28.xlsx
+++ b/OpsAndMats/Model28.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eclark.LABTESTING\Documents\ERP Notes\Phase2_BOM\OpsAndMats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD49699-689D-4F34-BDAF-1EFC2B5AA043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CA9A1A-DB7B-4C5F-8C30-CF26CD5321AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/OpsAndMats/Model28.xlsx
+++ b/OpsAndMats/Model28.xlsx
@@ -1,33 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eclark.LABTESTING\Documents\ERP Notes\Phase2_BOM\OpsAndMats\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CA9A1A-DB7B-4C5F-8C30-CF26CD5321AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
     <sheet name="Operations" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -886,7 +869,7 @@
     <t>7134010</t>
   </si>
   <si>
-    <t>9011003</t>
+    <t>9011187</t>
   </si>
   <si>
     <t>9812001</t>
@@ -2071,8 +2054,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2135,14 +2118,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2189,7 +2164,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2221,27 +2196,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2273,24 +2230,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2466,16 +2405,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="A331" sqref="A331:XFD465"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2606,7 +2543,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -2689,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -2772,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -2855,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -2938,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -3021,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -3104,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -3187,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -3270,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -3353,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -3436,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -3519,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -3602,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -3685,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3768,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -3851,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -3934,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -4017,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -4100,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -4183,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -4266,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -4349,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -4432,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -4515,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -4598,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -4681,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -4764,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -4847,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -4930,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -5013,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -5048,7 +4985,7 @@
         <v>8</v>
       </c>
       <c r="S31">
-        <v>6.25E-2</v>
+        <v>0.0625</v>
       </c>
       <c r="T31" t="s">
         <v>611</v>
@@ -5096,7 +5033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -5179,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -5214,7 +5151,7 @@
         <v>8</v>
       </c>
       <c r="S33">
-        <v>6.25E-2</v>
+        <v>0.0625</v>
       </c>
       <c r="T33" t="s">
         <v>611</v>
@@ -5262,7 +5199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -5345,7 +5282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -5428,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -5511,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -5594,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -5677,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:43">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -5760,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -5843,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -5926,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -6009,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:43">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -6092,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:43">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -6175,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:43">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -6258,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:43">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -6341,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:43">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -6424,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:43">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -6507,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:43">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -6590,7 +6527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:43">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -6673,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:43">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -6756,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -6839,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:43">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -6922,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:43">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -7005,7 +6942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:43">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -7088,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:43">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -7171,7 +7108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:43">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -7254,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:43">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -7337,7 +7274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:43">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -7420,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:43">
       <c r="A60" t="s">
         <v>52</v>
       </c>
@@ -7503,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:43">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -7586,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:43">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -7669,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:43">
       <c r="A63" t="s">
         <v>52</v>
       </c>
@@ -7752,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:43">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -7835,7 +7772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:43">
       <c r="A65" t="s">
         <v>52</v>
       </c>
@@ -7918,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -8001,7 +7938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:43">
       <c r="A67" t="s">
         <v>52</v>
       </c>
@@ -8084,7 +8021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -8167,7 +8104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:43">
       <c r="A69" t="s">
         <v>52</v>
       </c>
@@ -8250,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43">
       <c r="A70" t="s">
         <v>52</v>
       </c>
@@ -8333,7 +8270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:43">
       <c r="A71" t="s">
         <v>52</v>
       </c>
@@ -8416,7 +8353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:43">
       <c r="A72" t="s">
         <v>52</v>
       </c>
@@ -8499,7 +8436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:43">
       <c r="A73" t="s">
         <v>52</v>
       </c>
@@ -8582,7 +8519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43">
       <c r="A74" t="s">
         <v>52</v>
       </c>
@@ -8665,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:43">
       <c r="A75" t="s">
         <v>52</v>
       </c>
@@ -8748,7 +8685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:43">
       <c r="A76" t="s">
         <v>52</v>
       </c>
@@ -8831,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:43">
       <c r="A77" t="s">
         <v>52</v>
       </c>
@@ -8914,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:43">
       <c r="A78" t="s">
         <v>52</v>
       </c>
@@ -8997,7 +8934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:43">
       <c r="A79" t="s">
         <v>52</v>
       </c>
@@ -9080,7 +9017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:43">
       <c r="A80" t="s">
         <v>52</v>
       </c>
@@ -9163,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:43">
       <c r="A81" t="s">
         <v>52</v>
       </c>
@@ -9246,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:43">
       <c r="A82" t="s">
         <v>52</v>
       </c>
@@ -9329,7 +9266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:43">
       <c r="A83" t="s">
         <v>52</v>
       </c>
@@ -9412,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:43">
       <c r="A84" t="s">
         <v>52</v>
       </c>
@@ -9495,7 +9432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:43">
       <c r="A85" t="s">
         <v>52</v>
       </c>
@@ -9578,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43">
       <c r="A86" t="s">
         <v>52</v>
       </c>
@@ -9661,7 +9598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:43">
       <c r="A87" t="s">
         <v>52</v>
       </c>
@@ -9744,7 +9681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:43">
       <c r="A88" t="s">
         <v>52</v>
       </c>
@@ -9827,7 +9764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:43">
       <c r="A89" t="s">
         <v>52</v>
       </c>
@@ -9910,7 +9847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:43">
       <c r="A90" t="s">
         <v>52</v>
       </c>
@@ -9993,7 +9930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:43">
       <c r="A91" t="s">
         <v>52</v>
       </c>
@@ -10076,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:43">
       <c r="A92" t="s">
         <v>52</v>
       </c>
@@ -10159,7 +10096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:43">
       <c r="A93" t="s">
         <v>52</v>
       </c>
@@ -10242,7 +10179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:43">
       <c r="A94" t="s">
         <v>52</v>
       </c>
@@ -10325,7 +10262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:43">
       <c r="A95" t="s">
         <v>52</v>
       </c>
@@ -10408,7 +10345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:43">
       <c r="A96" t="s">
         <v>52</v>
       </c>
@@ -10491,7 +10428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:43">
       <c r="A97" t="s">
         <v>52</v>
       </c>
@@ -10574,7 +10511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:43">
       <c r="A98" t="s">
         <v>52</v>
       </c>
@@ -10657,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:43">
       <c r="A99" t="s">
         <v>52</v>
       </c>
@@ -10740,7 +10677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:43">
       <c r="A100" t="s">
         <v>52</v>
       </c>
@@ -10823,7 +10760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:43">
       <c r="A101" t="s">
         <v>52</v>
       </c>
@@ -10906,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:43">
       <c r="A102" t="s">
         <v>52</v>
       </c>
@@ -10989,7 +10926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:43">
       <c r="A103" t="s">
         <v>52</v>
       </c>
@@ -11072,7 +11009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:43">
       <c r="A104" t="s">
         <v>52</v>
       </c>
@@ -11155,7 +11092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:43">
       <c r="A105" t="s">
         <v>52</v>
       </c>
@@ -11238,7 +11175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:43">
       <c r="A106" t="s">
         <v>52</v>
       </c>
@@ -11321,7 +11258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:43">
       <c r="A107" t="s">
         <v>52</v>
       </c>
@@ -11404,7 +11341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:43">
       <c r="A108" t="s">
         <v>52</v>
       </c>
@@ -11487,7 +11424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:43">
       <c r="A109" t="s">
         <v>52</v>
       </c>
@@ -11570,7 +11507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:43">
       <c r="A110" t="s">
         <v>53</v>
       </c>
@@ -11653,7 +11590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:43">
       <c r="A111" t="s">
         <v>53</v>
       </c>
@@ -11736,7 +11673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:43">
       <c r="A112" t="s">
         <v>54</v>
       </c>
@@ -11819,7 +11756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:43">
       <c r="A113" t="s">
         <v>54</v>
       </c>
@@ -11902,7 +11839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:43">
       <c r="A114" t="s">
         <v>54</v>
       </c>
@@ -11985,7 +11922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:43">
       <c r="A115" t="s">
         <v>54</v>
       </c>
@@ -12068,7 +12005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:43">
       <c r="A116" t="s">
         <v>54</v>
       </c>
@@ -12151,7 +12088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:43">
       <c r="A117" t="s">
         <v>54</v>
       </c>
@@ -12234,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:43">
       <c r="A118" t="s">
         <v>54</v>
       </c>
@@ -12317,7 +12254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:43">
       <c r="A119" t="s">
         <v>54</v>
       </c>
@@ -12400,7 +12337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:43">
       <c r="A120" t="s">
         <v>55</v>
       </c>
@@ -12483,7 +12420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:43">
       <c r="A121" t="s">
         <v>55</v>
       </c>
@@ -12566,7 +12503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:43">
       <c r="A122" t="s">
         <v>55</v>
       </c>
@@ -12649,7 +12586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:43">
       <c r="A123" t="s">
         <v>55</v>
       </c>
@@ -12732,7 +12669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:43">
       <c r="A124" t="s">
         <v>55</v>
       </c>
@@ -12815,7 +12752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:43">
       <c r="A125" t="s">
         <v>55</v>
       </c>
@@ -12898,7 +12835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:43">
       <c r="A126" t="s">
         <v>55</v>
       </c>
@@ -12981,7 +12918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:43">
       <c r="A127" t="s">
         <v>55</v>
       </c>
@@ -13064,7 +13001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:43">
       <c r="A128" t="s">
         <v>55</v>
       </c>
@@ -13147,7 +13084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:43">
       <c r="A129" t="s">
         <v>55</v>
       </c>
@@ -13230,7 +13167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:43">
       <c r="A130" t="s">
         <v>55</v>
       </c>
@@ -13313,7 +13250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:43">
       <c r="A131" t="s">
         <v>56</v>
       </c>
@@ -13396,7 +13333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:43">
       <c r="A132" t="s">
         <v>56</v>
       </c>
@@ -13479,7 +13416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:43">
       <c r="A133" t="s">
         <v>56</v>
       </c>
@@ -13562,7 +13499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:43">
       <c r="A134" t="s">
         <v>56</v>
       </c>
@@ -13645,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:43">
       <c r="A135" t="s">
         <v>56</v>
       </c>
@@ -13728,7 +13665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:43">
       <c r="A136" t="s">
         <v>56</v>
       </c>
@@ -13811,7 +13748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:43">
       <c r="A137" t="s">
         <v>56</v>
       </c>
@@ -13894,7 +13831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:43">
       <c r="A138" t="s">
         <v>56</v>
       </c>
@@ -13977,7 +13914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:43">
       <c r="A139" t="s">
         <v>56</v>
       </c>
@@ -14060,7 +13997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:43">
       <c r="A140" t="s">
         <v>56</v>
       </c>
@@ -14143,7 +14080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:43">
       <c r="A141" t="s">
         <v>56</v>
       </c>
@@ -14226,7 +14163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:43">
       <c r="A142" t="s">
         <v>56</v>
       </c>
@@ -14309,7 +14246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:43">
       <c r="A143" t="s">
         <v>56</v>
       </c>
@@ -14392,7 +14329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:43">
       <c r="A144" t="s">
         <v>57</v>
       </c>
@@ -14475,7 +14412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:43">
       <c r="A145" t="s">
         <v>57</v>
       </c>
@@ -14558,7 +14495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:43">
       <c r="A146" t="s">
         <v>57</v>
       </c>
@@ -14641,7 +14578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:43">
       <c r="A147" t="s">
         <v>57</v>
       </c>
@@ -14724,7 +14661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:43">
       <c r="A148" t="s">
         <v>57</v>
       </c>
@@ -14807,7 +14744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:43">
       <c r="A149" t="s">
         <v>57</v>
       </c>
@@ -14890,7 +14827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:43">
       <c r="A150" t="s">
         <v>57</v>
       </c>
@@ -14973,7 +14910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:43">
       <c r="A151" t="s">
         <v>57</v>
       </c>
@@ -15056,7 +14993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:43">
       <c r="A152" t="s">
         <v>57</v>
       </c>
@@ -15139,7 +15076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:43">
       <c r="A153" t="s">
         <v>57</v>
       </c>
@@ -15222,7 +15159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:43">
       <c r="A154" t="s">
         <v>57</v>
       </c>
@@ -15305,7 +15242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:43">
       <c r="A155" t="s">
         <v>57</v>
       </c>
@@ -15388,7 +15325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:43">
       <c r="A156" t="s">
         <v>57</v>
       </c>
@@ -15471,7 +15408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:43">
       <c r="A157" t="s">
         <v>57</v>
       </c>
@@ -15554,7 +15491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:43">
       <c r="A158" t="s">
         <v>57</v>
       </c>
@@ -15637,7 +15574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:43">
       <c r="A159" t="s">
         <v>57</v>
       </c>
@@ -15720,7 +15657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:43">
       <c r="A160" t="s">
         <v>57</v>
       </c>
@@ -15803,7 +15740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:43">
       <c r="A161" t="s">
         <v>57</v>
       </c>
@@ -15886,7 +15823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:43">
       <c r="A162" t="s">
         <v>57</v>
       </c>
@@ -15969,7 +15906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:43">
       <c r="A163" t="s">
         <v>57</v>
       </c>
@@ -16052,7 +15989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:43">
       <c r="A164" t="s">
         <v>57</v>
       </c>
@@ -16135,7 +16072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:43">
       <c r="A165" t="s">
         <v>57</v>
       </c>
@@ -16218,7 +16155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:43">
       <c r="A166" t="s">
         <v>57</v>
       </c>
@@ -16301,7 +16238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:43">
       <c r="A167" t="s">
         <v>57</v>
       </c>
@@ -16384,7 +16321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:43">
       <c r="A168" t="s">
         <v>57</v>
       </c>
@@ -16467,7 +16404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:43">
       <c r="A169" t="s">
         <v>57</v>
       </c>
@@ -16550,7 +16487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:43">
       <c r="A170" t="s">
         <v>57</v>
       </c>
@@ -16633,7 +16570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:43">
       <c r="A171" t="s">
         <v>57</v>
       </c>
@@ -16716,7 +16653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:43">
       <c r="A172" t="s">
         <v>57</v>
       </c>
@@ -16799,7 +16736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:43">
       <c r="A173" t="s">
         <v>57</v>
       </c>
@@ -16882,7 +16819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:43">
       <c r="A174" t="s">
         <v>57</v>
       </c>
@@ -16965,7 +16902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:43">
       <c r="A175" t="s">
         <v>57</v>
       </c>
@@ -17048,7 +16985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:43">
       <c r="A176" t="s">
         <v>57</v>
       </c>
@@ -17131,7 +17068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:43">
       <c r="A177" t="s">
         <v>57</v>
       </c>
@@ -17214,7 +17151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:43">
       <c r="A178" t="s">
         <v>57</v>
       </c>
@@ -17297,7 +17234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:43">
       <c r="A179" t="s">
         <v>57</v>
       </c>
@@ -17380,7 +17317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:43">
       <c r="A180" t="s">
         <v>57</v>
       </c>
@@ -17463,7 +17400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:43">
       <c r="A181" t="s">
         <v>57</v>
       </c>
@@ -17546,7 +17483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:43">
       <c r="A182" t="s">
         <v>57</v>
       </c>
@@ -17629,7 +17566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:43">
       <c r="A183" t="s">
         <v>57</v>
       </c>
@@ -17712,7 +17649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:43">
       <c r="A184" t="s">
         <v>57</v>
       </c>
@@ -17795,7 +17732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:43">
       <c r="A185" t="s">
         <v>57</v>
       </c>
@@ -17878,7 +17815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:43">
       <c r="A186" t="s">
         <v>58</v>
       </c>
@@ -17961,7 +17898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:43">
       <c r="A187" t="s">
         <v>59</v>
       </c>
@@ -18044,7 +17981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:43">
       <c r="A188" t="s">
         <v>59</v>
       </c>
@@ -18127,7 +18064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:43">
       <c r="A189" t="s">
         <v>59</v>
       </c>
@@ -18210,7 +18147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:43">
       <c r="A190" t="s">
         <v>60</v>
       </c>
@@ -18293,7 +18230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:43">
       <c r="A191" t="s">
         <v>60</v>
       </c>
@@ -18376,7 +18313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:43">
       <c r="A192" t="s">
         <v>61</v>
       </c>
@@ -18411,7 +18348,7 @@
         <v>8</v>
       </c>
       <c r="S192">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T192" t="s">
         <v>611</v>
@@ -18459,7 +18396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:43">
       <c r="A193" t="s">
         <v>61</v>
       </c>
@@ -18494,7 +18431,7 @@
         <v>8</v>
       </c>
       <c r="S193">
-        <v>6.25E-2</v>
+        <v>0.0625</v>
       </c>
       <c r="T193" t="s">
         <v>611</v>
@@ -18542,7 +18479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:43">
       <c r="A194" t="s">
         <v>62</v>
       </c>
@@ -18625,7 +18562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:43">
       <c r="A195" t="s">
         <v>62</v>
       </c>
@@ -18660,7 +18597,7 @@
         <v>8</v>
       </c>
       <c r="S195">
-        <v>6.25E-2</v>
+        <v>0.0625</v>
       </c>
       <c r="T195" t="s">
         <v>611</v>
@@ -18708,7 +18645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:43">
       <c r="A196" t="s">
         <v>63</v>
       </c>
@@ -18791,7 +18728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:43">
       <c r="A197" t="s">
         <v>63</v>
       </c>
@@ -18826,7 +18763,7 @@
         <v>8</v>
       </c>
       <c r="S197">
-        <v>6.25E-2</v>
+        <v>0.0625</v>
       </c>
       <c r="T197" t="s">
         <v>611</v>
@@ -18874,7 +18811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:43">
       <c r="A198" t="s">
         <v>64</v>
       </c>
@@ -18957,7 +18894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:43">
       <c r="A199" t="s">
         <v>64</v>
       </c>
@@ -19040,7 +18977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:43">
       <c r="A200" t="s">
         <v>64</v>
       </c>
@@ -19123,7 +19060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:43">
       <c r="A201" t="s">
         <v>64</v>
       </c>
@@ -19206,7 +19143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:43">
       <c r="A202" t="s">
         <v>64</v>
       </c>
@@ -19289,7 +19226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:43">
       <c r="A203" t="s">
         <v>65</v>
       </c>
@@ -19372,7 +19309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:43">
       <c r="A204" t="s">
         <v>65</v>
       </c>
@@ -19407,7 +19344,7 @@
         <v>8</v>
       </c>
       <c r="S204">
-        <v>6.25E-2</v>
+        <v>0.0625</v>
       </c>
       <c r="T204" t="s">
         <v>611</v>
@@ -19455,7 +19392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:43">
       <c r="A205" t="s">
         <v>66</v>
       </c>
@@ -19538,7 +19475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:43">
       <c r="A206" t="s">
         <v>66</v>
       </c>
@@ -19573,7 +19510,7 @@
         <v>8</v>
       </c>
       <c r="S206">
-        <v>6.25E-2</v>
+        <v>0.0625</v>
       </c>
       <c r="T206" t="s">
         <v>611</v>
@@ -19621,7 +19558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:43">
       <c r="A207" t="s">
         <v>67</v>
       </c>
@@ -19704,7 +19641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:43">
       <c r="A208" t="s">
         <v>68</v>
       </c>
@@ -19787,7 +19724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:43">
       <c r="A209" t="s">
         <v>69</v>
       </c>
@@ -19870,7 +19807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:43">
       <c r="A210" t="s">
         <v>70</v>
       </c>
@@ -19953,7 +19890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:43">
       <c r="A211" t="s">
         <v>71</v>
       </c>
@@ -20036,7 +19973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:43">
       <c r="A212" t="s">
         <v>72</v>
       </c>
@@ -20119,7 +20056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:43">
       <c r="A213" t="s">
         <v>73</v>
       </c>
@@ -20202,7 +20139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:43">
       <c r="A214" t="s">
         <v>73</v>
       </c>
@@ -20285,7 +20222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:43">
       <c r="A215" t="s">
         <v>73</v>
       </c>
@@ -20368,7 +20305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:43">
       <c r="A216" t="s">
         <v>73</v>
       </c>
@@ -20451,7 +20388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:43">
       <c r="A217" t="s">
         <v>73</v>
       </c>
@@ -20534,7 +20471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:43">
       <c r="A218" t="s">
         <v>73</v>
       </c>
@@ -20617,7 +20554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:43">
       <c r="A219" t="s">
         <v>73</v>
       </c>
@@ -20700,7 +20637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:43">
       <c r="A220" t="s">
         <v>73</v>
       </c>
@@ -20783,7 +20720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:43">
       <c r="A221" t="s">
         <v>73</v>
       </c>
@@ -20866,7 +20803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:43">
       <c r="A222" t="s">
         <v>73</v>
       </c>
@@ -20949,7 +20886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:43">
       <c r="A223" t="s">
         <v>73</v>
       </c>
@@ -21032,7 +20969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:43">
       <c r="A224" t="s">
         <v>73</v>
       </c>
@@ -21115,7 +21052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:43">
       <c r="A225" t="s">
         <v>73</v>
       </c>
@@ -21198,7 +21135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:43">
       <c r="A226" t="s">
         <v>73</v>
       </c>
@@ -21281,7 +21218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:43">
       <c r="A227" t="s">
         <v>73</v>
       </c>
@@ -21364,7 +21301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:43">
       <c r="A228" t="s">
         <v>73</v>
       </c>
@@ -21447,7 +21384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:43">
       <c r="A229" t="s">
         <v>73</v>
       </c>
@@ -21530,7 +21467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:43">
       <c r="A230" t="s">
         <v>73</v>
       </c>
@@ -21613,7 +21550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:43">
       <c r="A231" t="s">
         <v>73</v>
       </c>
@@ -21696,7 +21633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:43">
       <c r="A232" t="s">
         <v>73</v>
       </c>
@@ -21779,7 +21716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:43">
       <c r="A233" t="s">
         <v>73</v>
       </c>
@@ -21862,7 +21799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:43">
       <c r="A234" t="s">
         <v>73</v>
       </c>
@@ -21945,7 +21882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:43">
       <c r="A235" t="s">
         <v>73</v>
       </c>
@@ -22028,7 +21965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:43">
       <c r="A236" t="s">
         <v>73</v>
       </c>
@@ -22111,7 +22048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:43">
       <c r="A237" t="s">
         <v>73</v>
       </c>
@@ -22194,7 +22131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:43">
       <c r="A238" t="s">
         <v>73</v>
       </c>
@@ -22277,7 +22214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:43">
       <c r="A239" t="s">
         <v>73</v>
       </c>
@@ -22360,7 +22297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:43">
       <c r="A240" t="s">
         <v>73</v>
       </c>
@@ -22443,7 +22380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:43">
       <c r="A241" t="s">
         <v>73</v>
       </c>
@@ -22526,7 +22463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:43">
       <c r="A242" t="s">
         <v>73</v>
       </c>
@@ -22609,7 +22546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:43">
       <c r="A243" t="s">
         <v>73</v>
       </c>
@@ -22692,7 +22629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:43">
       <c r="A244" t="s">
         <v>73</v>
       </c>
@@ -22775,7 +22712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:43">
       <c r="A245" t="s">
         <v>73</v>
       </c>
@@ -22858,7 +22795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:43">
       <c r="A246" t="s">
         <v>73</v>
       </c>
@@ -22941,7 +22878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:43">
       <c r="A247" t="s">
         <v>73</v>
       </c>
@@ -23024,7 +22961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:43">
       <c r="A248" t="s">
         <v>73</v>
       </c>
@@ -23107,7 +23044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:43">
       <c r="A249" t="s">
         <v>73</v>
       </c>
@@ -23190,7 +23127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:43">
       <c r="A250" t="s">
         <v>73</v>
       </c>
@@ -23273,7 +23210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:43">
       <c r="A251" t="s">
         <v>73</v>
       </c>
@@ -23356,7 +23293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:43">
       <c r="A252" t="s">
         <v>73</v>
       </c>
@@ -23439,7 +23376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:43">
       <c r="A253" t="s">
         <v>73</v>
       </c>
@@ -23522,7 +23459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:43">
       <c r="A254" t="s">
         <v>73</v>
       </c>
@@ -23605,7 +23542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:43">
       <c r="A255" t="s">
         <v>73</v>
       </c>
@@ -23688,7 +23625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:43">
       <c r="A256" t="s">
         <v>73</v>
       </c>
@@ -23771,7 +23708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:43">
       <c r="A257" t="s">
         <v>73</v>
       </c>
@@ -23854,7 +23791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:43">
       <c r="A258" t="s">
         <v>73</v>
       </c>
@@ -23937,7 +23874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:43">
       <c r="A259" t="s">
         <v>73</v>
       </c>
@@ -24020,7 +23957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:43">
       <c r="A260" t="s">
         <v>73</v>
       </c>
@@ -24103,7 +24040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:43">
       <c r="A261" t="s">
         <v>73</v>
       </c>
@@ -24186,7 +24123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:43">
       <c r="A262" t="s">
         <v>73</v>
       </c>
@@ -24269,7 +24206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:43">
       <c r="A263" t="s">
         <v>73</v>
       </c>
@@ -24352,7 +24289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:43">
       <c r="A264" t="s">
         <v>73</v>
       </c>
@@ -24435,7 +24372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:43">
       <c r="A265" t="s">
         <v>73</v>
       </c>
@@ -24518,7 +24455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:43">
       <c r="A266" t="s">
         <v>73</v>
       </c>
@@ -24601,7 +24538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:43">
       <c r="A267" t="s">
         <v>73</v>
       </c>
@@ -24684,7 +24621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:43">
       <c r="A268" t="s">
         <v>73</v>
       </c>
@@ -24767,7 +24704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:43">
       <c r="A269" t="s">
         <v>73</v>
       </c>
@@ -24850,7 +24787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:43">
       <c r="A270" t="s">
         <v>73</v>
       </c>
@@ -24933,7 +24870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:43">
       <c r="A271" t="s">
         <v>73</v>
       </c>
@@ -25016,7 +24953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:43">
       <c r="A272" t="s">
         <v>73</v>
       </c>
@@ -25099,7 +25036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:43">
       <c r="A273" t="s">
         <v>73</v>
       </c>
@@ -25182,7 +25119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:43">
       <c r="A274" t="s">
         <v>73</v>
       </c>
@@ -25265,7 +25202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:43">
       <c r="A275" t="s">
         <v>73</v>
       </c>
@@ -25348,7 +25285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:43">
       <c r="A276" t="s">
         <v>73</v>
       </c>
@@ -25431,7 +25368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:43">
       <c r="A277" t="s">
         <v>73</v>
       </c>
@@ -25514,7 +25451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:43">
       <c r="A278" t="s">
         <v>73</v>
       </c>
@@ -25597,7 +25534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:43">
       <c r="A279" t="s">
         <v>73</v>
       </c>
@@ -25680,7 +25617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:43">
       <c r="A280" t="s">
         <v>73</v>
       </c>
@@ -25763,7 +25700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:43">
       <c r="A281" t="s">
         <v>73</v>
       </c>
@@ -25846,7 +25783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:43">
       <c r="A282" t="s">
         <v>73</v>
       </c>
@@ -25929,7 +25866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:43">
       <c r="A283" t="s">
         <v>73</v>
       </c>
@@ -26012,7 +25949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:43">
       <c r="A284" t="s">
         <v>73</v>
       </c>
@@ -26095,7 +26032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:43">
       <c r="A285" t="s">
         <v>74</v>
       </c>
@@ -26178,7 +26115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:43">
       <c r="A286" t="s">
         <v>74</v>
       </c>
@@ -26261,7 +26198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:43">
       <c r="A287" t="s">
         <v>74</v>
       </c>
@@ -26344,7 +26281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:43">
       <c r="A288" t="s">
         <v>75</v>
       </c>
@@ -26427,7 +26364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:43">
       <c r="A289" t="s">
         <v>75</v>
       </c>
@@ -26462,7 +26399,7 @@
         <v>8</v>
       </c>
       <c r="S289">
-        <v>6.25E-2</v>
+        <v>0.0625</v>
       </c>
       <c r="T289" t="s">
         <v>611</v>
@@ -26510,7 +26447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:43">
       <c r="A290" t="s">
         <v>76</v>
       </c>
@@ -26593,7 +26530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:43">
       <c r="A291" t="s">
         <v>76</v>
       </c>
@@ -26628,7 +26565,7 @@
         <v>8</v>
       </c>
       <c r="S291">
-        <v>6.25E-2</v>
+        <v>0.0625</v>
       </c>
       <c r="T291" t="s">
         <v>611</v>
@@ -26676,7 +26613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:43">
       <c r="A292" t="s">
         <v>77</v>
       </c>
@@ -26759,7 +26696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:43">
       <c r="A293" t="s">
         <v>78</v>
       </c>
@@ -26842,7 +26779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:43">
       <c r="A294" t="s">
         <v>78</v>
       </c>
@@ -26925,7 +26862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:43">
       <c r="A295" t="s">
         <v>78</v>
       </c>
@@ -27008,7 +26945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:43">
       <c r="A296" t="s">
         <v>78</v>
       </c>
@@ -27091,7 +27028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:43">
       <c r="A297" t="s">
         <v>78</v>
       </c>
@@ -27174,7 +27111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:43">
       <c r="A298" t="s">
         <v>78</v>
       </c>
@@ -27257,7 +27194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:43">
       <c r="A299" t="s">
         <v>78</v>
       </c>
@@ -27340,7 +27277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:43">
       <c r="A300" t="s">
         <v>78</v>
       </c>
@@ -27423,7 +27360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:43">
       <c r="A301" t="s">
         <v>78</v>
       </c>
@@ -27506,7 +27443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:43">
       <c r="A302" t="s">
         <v>78</v>
       </c>
@@ -27589,7 +27526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:43">
       <c r="A303" t="s">
         <v>78</v>
       </c>
@@ -27672,7 +27609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:43">
       <c r="A304" t="s">
         <v>78</v>
       </c>
@@ -27755,7 +27692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:43">
       <c r="A305" t="s">
         <v>78</v>
       </c>
@@ -27838,7 +27775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:43">
       <c r="A306" t="s">
         <v>78</v>
       </c>
@@ -27921,7 +27858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:43">
       <c r="A307" t="s">
         <v>78</v>
       </c>
@@ -28004,7 +27941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:43">
       <c r="A308" t="s">
         <v>78</v>
       </c>
@@ -28087,7 +28024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:43">
       <c r="A309" t="s">
         <v>78</v>
       </c>
@@ -28170,7 +28107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:43">
       <c r="A310" t="s">
         <v>78</v>
       </c>
@@ -28253,7 +28190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:43">
       <c r="A311" t="s">
         <v>78</v>
       </c>
@@ -28336,7 +28273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:43">
       <c r="A312" t="s">
         <v>78</v>
       </c>
@@ -28419,7 +28356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:43">
       <c r="A313" t="s">
         <v>78</v>
       </c>
@@ -28502,7 +28439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:43">
       <c r="A314" t="s">
         <v>78</v>
       </c>
@@ -28585,7 +28522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:43">
       <c r="A315" t="s">
         <v>78</v>
       </c>
@@ -28668,7 +28605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:43">
       <c r="A316" t="s">
         <v>78</v>
       </c>
@@ -28751,7 +28688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:43">
       <c r="A317" t="s">
         <v>78</v>
       </c>
@@ -28834,7 +28771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:43">
       <c r="A318" t="s">
         <v>78</v>
       </c>
@@ -28917,7 +28854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:43">
       <c r="A319" t="s">
         <v>78</v>
       </c>
@@ -29000,7 +28937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:43">
       <c r="A320" t="s">
         <v>78</v>
       </c>
@@ -29083,7 +29020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:43">
       <c r="A321" t="s">
         <v>78</v>
       </c>
@@ -29166,7 +29103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:43">
       <c r="A322" t="s">
         <v>78</v>
       </c>
@@ -29249,7 +29186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:43">
       <c r="A323" t="s">
         <v>78</v>
       </c>
@@ -29332,7 +29269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:43">
       <c r="A324" t="s">
         <v>79</v>
       </c>
@@ -29415,7 +29352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:43">
       <c r="A325" t="s">
         <v>79</v>
       </c>
@@ -29498,7 +29435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:43">
       <c r="A326" t="s">
         <v>79</v>
       </c>
@@ -29581,7 +29518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:43">
       <c r="A327" t="s">
         <v>79</v>
       </c>
@@ -29664,7 +29601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:43">
       <c r="A328" t="s">
         <v>79</v>
       </c>
@@ -29747,7 +29684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:43">
       <c r="A329" t="s">
         <v>79</v>
       </c>
@@ -29830,7 +29767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:43">
       <c r="A330" t="s">
         <v>79</v>
       </c>
@@ -29913,7 +29850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:43">
       <c r="A331" t="s">
         <v>80</v>
       </c>
@@ -29996,7 +29933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:43">
       <c r="A332" t="s">
         <v>80</v>
       </c>
@@ -30079,7 +30016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:43">
       <c r="A333" t="s">
         <v>80</v>
       </c>
@@ -30162,7 +30099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:43">
       <c r="A334" t="s">
         <v>80</v>
       </c>
@@ -30245,7 +30182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:43">
       <c r="A335" t="s">
         <v>81</v>
       </c>
@@ -30328,7 +30265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:43">
       <c r="A336" t="s">
         <v>81</v>
       </c>
@@ -30411,7 +30348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:43">
       <c r="A337" t="s">
         <v>81</v>
       </c>
@@ -30494,7 +30431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:43">
       <c r="A338" t="s">
         <v>81</v>
       </c>
@@ -30577,7 +30514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:43">
       <c r="A339" t="s">
         <v>82</v>
       </c>
@@ -30660,7 +30597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:43">
       <c r="A340" t="s">
         <v>82</v>
       </c>
@@ -30743,7 +30680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:43">
       <c r="A341" t="s">
         <v>82</v>
       </c>
@@ -30826,7 +30763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:43">
       <c r="A342" t="s">
         <v>82</v>
       </c>
@@ -30909,7 +30846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:43">
       <c r="A343" t="s">
         <v>83</v>
       </c>
@@ -30992,7 +30929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:43">
       <c r="A344" t="s">
         <v>83</v>
       </c>
@@ -31075,7 +31012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:43">
       <c r="A345" t="s">
         <v>83</v>
       </c>
@@ -31158,7 +31095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:43">
       <c r="A346" t="s">
         <v>83</v>
       </c>
@@ -31241,7 +31178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:43">
       <c r="A347" t="s">
         <v>84</v>
       </c>
@@ -31324,7 +31261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:43">
       <c r="A348" t="s">
         <v>84</v>
       </c>
@@ -31407,7 +31344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:43">
       <c r="A349" t="s">
         <v>84</v>
       </c>
@@ -31490,7 +31427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:43">
       <c r="A350" t="s">
         <v>84</v>
       </c>
@@ -31573,7 +31510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:43">
       <c r="A351" t="s">
         <v>85</v>
       </c>
@@ -31656,7 +31593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:43">
       <c r="A352" t="s">
         <v>85</v>
       </c>
@@ -31739,7 +31676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:43">
       <c r="A353" t="s">
         <v>85</v>
       </c>
@@ -31822,7 +31759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:43">
       <c r="A354" t="s">
         <v>85</v>
       </c>
@@ -31905,7 +31842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:43">
       <c r="A355" t="s">
         <v>86</v>
       </c>
@@ -31988,7 +31925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:43">
       <c r="A356" t="s">
         <v>86</v>
       </c>
@@ -32071,7 +32008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:43">
       <c r="A357" t="s">
         <v>86</v>
       </c>
@@ -32154,7 +32091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:43">
       <c r="A358" t="s">
         <v>86</v>
       </c>
@@ -32237,7 +32174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:43">
       <c r="A359" t="s">
         <v>87</v>
       </c>
@@ -32320,7 +32257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:43">
       <c r="A360" t="s">
         <v>87</v>
       </c>
@@ -32403,7 +32340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:43">
       <c r="A361" t="s">
         <v>87</v>
       </c>
@@ -32486,7 +32423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:43">
       <c r="A362" t="s">
         <v>87</v>
       </c>
@@ -32569,7 +32506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:43">
       <c r="A363" t="s">
         <v>88</v>
       </c>
@@ -32652,7 +32589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:43">
       <c r="A364" t="s">
         <v>88</v>
       </c>
@@ -32735,7 +32672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:43">
       <c r="A365" t="s">
         <v>88</v>
       </c>
@@ -32818,7 +32755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:43">
       <c r="A366" t="s">
         <v>88</v>
       </c>
@@ -32901,7 +32838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:43">
       <c r="A367" t="s">
         <v>88</v>
       </c>
@@ -32984,7 +32921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:43">
       <c r="A368" t="s">
         <v>88</v>
       </c>
@@ -33067,7 +33004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:43">
       <c r="A369" t="s">
         <v>88</v>
       </c>
@@ -33150,7 +33087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:43">
       <c r="A370" t="s">
         <v>88</v>
       </c>
@@ -33233,7 +33170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:43">
       <c r="A371" t="s">
         <v>88</v>
       </c>
@@ -33316,7 +33253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:43">
       <c r="A372" t="s">
         <v>88</v>
       </c>
@@ -33399,7 +33336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:43">
       <c r="A373" t="s">
         <v>88</v>
       </c>
@@ -33482,7 +33419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:43">
       <c r="A374" t="s">
         <v>88</v>
       </c>
@@ -33565,7 +33502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:43">
       <c r="A375" t="s">
         <v>88</v>
       </c>
@@ -33648,7 +33585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:43">
       <c r="A376" t="s">
         <v>88</v>
       </c>
@@ -33731,7 +33668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:43">
       <c r="A377" t="s">
         <v>88</v>
       </c>
@@ -33814,7 +33751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:43">
       <c r="A378" t="s">
         <v>88</v>
       </c>
@@ -33897,7 +33834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:43">
       <c r="A379" t="s">
         <v>88</v>
       </c>
@@ -33980,7 +33917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:43">
       <c r="A380" t="s">
         <v>88</v>
       </c>
@@ -34063,7 +34000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:43">
       <c r="A381" t="s">
         <v>88</v>
       </c>
@@ -34146,7 +34083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:43">
       <c r="A382" t="s">
         <v>88</v>
       </c>
@@ -34229,7 +34166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:43">
       <c r="A383" t="s">
         <v>88</v>
       </c>
@@ -34312,7 +34249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:43">
       <c r="A384" t="s">
         <v>88</v>
       </c>
@@ -34395,7 +34332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:43">
       <c r="A385" t="s">
         <v>88</v>
       </c>
@@ -34478,7 +34415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:43">
       <c r="A386" t="s">
         <v>88</v>
       </c>
@@ -34561,7 +34498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:43">
       <c r="A387" t="s">
         <v>88</v>
       </c>
@@ -34644,7 +34581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:43">
       <c r="A388" t="s">
         <v>88</v>
       </c>
@@ -34727,7 +34664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:43">
       <c r="A389" t="s">
         <v>88</v>
       </c>
@@ -34810,7 +34747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:43">
       <c r="A390" t="s">
         <v>88</v>
       </c>
@@ -34893,7 +34830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:43">
       <c r="A391" t="s">
         <v>88</v>
       </c>
@@ -34976,7 +34913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:43">
       <c r="A392" t="s">
         <v>88</v>
       </c>
@@ -35059,7 +34996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:43">
       <c r="A393" t="s">
         <v>88</v>
       </c>
@@ -35142,7 +35079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:43">
       <c r="A394" t="s">
         <v>88</v>
       </c>
@@ -35225,7 +35162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:43">
       <c r="A395" t="s">
         <v>88</v>
       </c>
@@ -35308,7 +35245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:43">
       <c r="A396" t="s">
         <v>88</v>
       </c>
@@ -35391,7 +35328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:43">
       <c r="A397" t="s">
         <v>88</v>
       </c>
@@ -35474,7 +35411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:43">
       <c r="A398" t="s">
         <v>88</v>
       </c>
@@ -35557,7 +35494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:43">
       <c r="A399" t="s">
         <v>88</v>
       </c>
@@ -35640,7 +35577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:43">
       <c r="A400" t="s">
         <v>88</v>
       </c>
@@ -35723,7 +35660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:43">
       <c r="A401" t="s">
         <v>88</v>
       </c>
@@ -35806,7 +35743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:43">
       <c r="A402" t="s">
         <v>88</v>
       </c>
@@ -35889,7 +35826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:43">
       <c r="A403" t="s">
         <v>88</v>
       </c>
@@ -35972,7 +35909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:43">
       <c r="A404" t="s">
         <v>88</v>
       </c>
@@ -36055,7 +35992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:43">
       <c r="A405" t="s">
         <v>88</v>
       </c>
@@ -36138,7 +36075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:43">
       <c r="A406" t="s">
         <v>88</v>
       </c>
@@ -36221,7 +36158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:43">
       <c r="A407" t="s">
         <v>88</v>
       </c>
@@ -36304,7 +36241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:43">
       <c r="A408" t="s">
         <v>88</v>
       </c>
@@ -36387,7 +36324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:43">
       <c r="A409" t="s">
         <v>88</v>
       </c>
@@ -36470,7 +36407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:43">
       <c r="A410" t="s">
         <v>88</v>
       </c>
@@ -36553,7 +36490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:43">
       <c r="A411" t="s">
         <v>88</v>
       </c>
@@ -36636,7 +36573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:43">
       <c r="A412" t="s">
         <v>88</v>
       </c>
@@ -36719,7 +36656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:43">
       <c r="A413" t="s">
         <v>88</v>
       </c>
@@ -36802,7 +36739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:43">
       <c r="A414" t="s">
         <v>88</v>
       </c>
@@ -36885,7 +36822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:43">
       <c r="A415" t="s">
         <v>88</v>
       </c>
@@ -36968,7 +36905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:43">
       <c r="A416" t="s">
         <v>88</v>
       </c>
@@ -37051,7 +36988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:43">
       <c r="A417" t="s">
         <v>88</v>
       </c>
@@ -37134,7 +37071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:43">
       <c r="A418" t="s">
         <v>88</v>
       </c>
@@ -37217,7 +37154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:43">
       <c r="A419" t="s">
         <v>88</v>
       </c>
@@ -37300,7 +37237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:43">
       <c r="A420" t="s">
         <v>88</v>
       </c>
@@ -37383,7 +37320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:43">
       <c r="A421" t="s">
         <v>88</v>
       </c>
@@ -37466,7 +37403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:43">
       <c r="A422" t="s">
         <v>88</v>
       </c>
@@ -37549,7 +37486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:43">
       <c r="A423" t="s">
         <v>88</v>
       </c>
@@ -37632,7 +37569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:43">
       <c r="A424" t="s">
         <v>88</v>
       </c>
@@ -37715,7 +37652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:43">
       <c r="A425" t="s">
         <v>88</v>
       </c>
@@ -37798,7 +37735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:43">
       <c r="A426" t="s">
         <v>88</v>
       </c>
@@ -37881,7 +37818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:43">
       <c r="A427" t="s">
         <v>88</v>
       </c>
@@ -37964,7 +37901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:43">
       <c r="A428" t="s">
         <v>88</v>
       </c>
@@ -38047,7 +37984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:43">
       <c r="A429" t="s">
         <v>88</v>
       </c>
@@ -38130,7 +38067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:43">
       <c r="A430" t="s">
         <v>88</v>
       </c>
@@ -38213,7 +38150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:43">
       <c r="A431" t="s">
         <v>88</v>
       </c>
@@ -38296,7 +38233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:43">
       <c r="A432" t="s">
         <v>89</v>
       </c>
@@ -38379,7 +38316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:43">
       <c r="A433" t="s">
         <v>89</v>
       </c>
@@ -38462,7 +38399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:43">
       <c r="A434" t="s">
         <v>89</v>
       </c>
@@ -38545,7 +38482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:43">
       <c r="A435" t="s">
         <v>89</v>
       </c>
@@ -38628,7 +38565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:43">
       <c r="A436" t="s">
         <v>89</v>
       </c>
@@ -38711,7 +38648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:43">
       <c r="A437" t="s">
         <v>89</v>
       </c>
@@ -38794,7 +38731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:43">
       <c r="A438" t="s">
         <v>89</v>
       </c>
@@ -38877,7 +38814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:43">
       <c r="A439" t="s">
         <v>90</v>
       </c>
@@ -38960,7 +38897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:43">
       <c r="A440" t="s">
         <v>90</v>
       </c>
@@ -39043,7 +38980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:43">
       <c r="A441" t="s">
         <v>90</v>
       </c>
@@ -39126,7 +39063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:43">
       <c r="A442" t="s">
         <v>90</v>
       </c>
@@ -39209,7 +39146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:43">
       <c r="A443" t="s">
         <v>90</v>
       </c>
@@ -39292,7 +39229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:43">
       <c r="A444" t="s">
         <v>90</v>
       </c>
@@ -39375,7 +39312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:43">
       <c r="A445" t="s">
         <v>90</v>
       </c>
@@ -39458,7 +39395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:43">
       <c r="A446" t="s">
         <v>91</v>
       </c>
@@ -39541,7 +39478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:43">
       <c r="A447" t="s">
         <v>92</v>
       </c>
@@ -39624,7 +39561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:43">
       <c r="A448" t="s">
         <v>92</v>
       </c>
@@ -39707,7 +39644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:43">
       <c r="A449" t="s">
         <v>92</v>
       </c>
@@ -39790,7 +39727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:43">
       <c r="A450" t="s">
         <v>92</v>
       </c>
@@ -39873,7 +39810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:43">
       <c r="A451" t="s">
         <v>92</v>
       </c>
@@ -39956,7 +39893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:43">
       <c r="A452" t="s">
         <v>93</v>
       </c>
@@ -40039,7 +39976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:43">
       <c r="A453" t="s">
         <v>93</v>
       </c>
@@ -40122,7 +40059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:43">
       <c r="A454" t="s">
         <v>93</v>
       </c>
@@ -40205,7 +40142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:43">
       <c r="A455" t="s">
         <v>93</v>
       </c>
@@ -40288,7 +40225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:43">
       <c r="A456" t="s">
         <v>93</v>
       </c>
@@ -40371,7 +40308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:43">
       <c r="A457" t="s">
         <v>94</v>
       </c>
@@ -40454,7 +40391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:43">
       <c r="A458" t="s">
         <v>95</v>
       </c>
@@ -40537,7 +40474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:43">
       <c r="A459" t="s">
         <v>96</v>
       </c>
@@ -40620,7 +40557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:43">
       <c r="A460" t="s">
         <v>97</v>
       </c>
@@ -40703,7 +40640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:43">
       <c r="A461" t="s">
         <v>98</v>
       </c>
@@ -40786,7 +40723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:43">
       <c r="A462" t="s">
         <v>99</v>
       </c>
@@ -40869,7 +40806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:43">
       <c r="A463" t="s">
         <v>100</v>
       </c>
@@ -40952,7 +40889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:43">
       <c r="A464" t="s">
         <v>101</v>
       </c>
@@ -41035,7 +40972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:43">
       <c r="A465" t="s">
         <v>101</v>
       </c>
@@ -41124,19 +41061,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AW121"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:XFD94"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -41285,7 +41217,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -41395,7 +41327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -41505,7 +41437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -41615,7 +41547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -41725,7 +41657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -41835,7 +41767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -41945,7 +41877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -42055,7 +41987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -42165,7 +42097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -42275,7 +42207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -42385,7 +42317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -42495,7 +42427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -42605,7 +42537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -42715,7 +42647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -42825,7 +42757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -42935,7 +42867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -43045,7 +42977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -43155,7 +43087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -43265,7 +43197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -43375,7 +43307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -43485,7 +43417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -43595,7 +43527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -43705,7 +43637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -43815,7 +43747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -43925,7 +43857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -44035,7 +43967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -44145,7 +44077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -44255,7 +44187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -44365,7 +44297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -44475,7 +44407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -44585,7 +44517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:49">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -44695,7 +44627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:49">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -44805,7 +44737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:49">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -44915,7 +44847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:49">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -45025,7 +44957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:49">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -45135,7 +45067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:49">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -45245,7 +45177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:49">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -45355,7 +45287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:49">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -45465,7 +45397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:49">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -45575,7 +45507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:49">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -45685,7 +45617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:49">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -45795,7 +45727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:49">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -45905,7 +45837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:49">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -46015,7 +45947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:49">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -46125,7 +46057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:49">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -46235,7 +46167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:49">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -46345,7 +46277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:49">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -46455,7 +46387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:49">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -46565,7 +46497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:49">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -46675,7 +46607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:49">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -46785,7 +46717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:49">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -46895,7 +46827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:49">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -47005,7 +46937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:49">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -47115,7 +47047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:49">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -47225,7 +47157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:49">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -47335,7 +47267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:49">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -47445,7 +47377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:49">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -47555,7 +47487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:49">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -47665,7 +47597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:49">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -47775,7 +47707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:49">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -47885,7 +47817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:49">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -47995,7 +47927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:49">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -48105,7 +48037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:49">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -48215,7 +48147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:49">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -48325,7 +48257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:49">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -48435,7 +48367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:49">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -48545,7 +48477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:49">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -48655,7 +48587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:49">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -48765,7 +48697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:49">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -48875,7 +48807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:49">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -48985,7 +48917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:49">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -49095,7 +49027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:49">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -49205,7 +49137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:49">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -49315,7 +49247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:49">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -49425,7 +49357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:49">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -49535,7 +49467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:49">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -49645,7 +49577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:49">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -49755,7 +49687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:49">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -49865,7 +49797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:49">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -49975,7 +49907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:49">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -50085,7 +50017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:49">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -50195,7 +50127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:49">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -50305,7 +50237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:49">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -50415,7 +50347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:49">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -50525,7 +50457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:49">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -50635,7 +50567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:49">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -50745,7 +50677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:49">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -50855,7 +50787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:49">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -50965,7 +50897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:49">
       <c r="A90" t="s">
         <v>84</v>
       </c>
@@ -51075,7 +51007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:49">
       <c r="A91" t="s">
         <v>85</v>
       </c>
@@ -51185,7 +51117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:49">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -51295,7 +51227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:49">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -51405,7 +51337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:49">
       <c r="A94" t="s">
         <v>88</v>
       </c>
@@ -51515,7 +51447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:49">
       <c r="A95" t="s">
         <v>89</v>
       </c>
@@ -51625,7 +51557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:49">
       <c r="A96" t="s">
         <v>90</v>
       </c>
@@ -51735,7 +51667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:49">
       <c r="A97" t="s">
         <v>91</v>
       </c>
@@ -51845,7 +51777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:49">
       <c r="A98" t="s">
         <v>91</v>
       </c>
@@ -51955,7 +51887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:49">
       <c r="A99" t="s">
         <v>92</v>
       </c>
@@ -52065,7 +51997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:49">
       <c r="A100" t="s">
         <v>92</v>
       </c>
@@ -52175,7 +52107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:49">
       <c r="A101" t="s">
         <v>92</v>
       </c>
@@ -52285,7 +52217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:49">
       <c r="A102" t="s">
         <v>93</v>
       </c>
@@ -52395,7 +52327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:49">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -52505,7 +52437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:49">
       <c r="A104" t="s">
         <v>93</v>
       </c>
@@ -52615,7 +52547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:49">
       <c r="A105" t="s">
         <v>94</v>
       </c>
@@ -52725,7 +52657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:49">
       <c r="A106" t="s">
         <v>94</v>
       </c>
@@ -52835,7 +52767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:49">
       <c r="A107" t="s">
         <v>95</v>
       </c>
@@ -52945,7 +52877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:49">
       <c r="A108" t="s">
         <v>95</v>
       </c>
@@ -53055,7 +52987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:49">
       <c r="A109" t="s">
         <v>96</v>
       </c>
@@ -53165,7 +53097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:49">
       <c r="A110" t="s">
         <v>96</v>
       </c>
@@ -53275,7 +53207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:49">
       <c r="A111" t="s">
         <v>96</v>
       </c>
@@ -53385,7 +53317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:49">
       <c r="A112" t="s">
         <v>97</v>
       </c>
@@ -53495,7 +53427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:49">
       <c r="A113" t="s">
         <v>97</v>
       </c>
@@ -53605,7 +53537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:49">
       <c r="A114" t="s">
         <v>98</v>
       </c>
@@ -53715,7 +53647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:49">
       <c r="A115" t="s">
         <v>98</v>
       </c>
@@ -53825,7 +53757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:49">
       <c r="A116" t="s">
         <v>99</v>
       </c>
@@ -53935,7 +53867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:49">
       <c r="A117" t="s">
         <v>100</v>
       </c>
@@ -54045,7 +53977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:49">
       <c r="A118" t="s">
         <v>101</v>
       </c>
@@ -54155,7 +54087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:49">
       <c r="A119" t="s">
         <v>101</v>
       </c>
@@ -54265,7 +54197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:49">
       <c r="A120" t="s">
         <v>101</v>
       </c>
@@ -54375,7 +54307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:49">
       <c r="A121" t="s">
         <v>101</v>
       </c>
